--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,14 +247,49 @@
   </si>
   <si>
     <t>0:人民币1:港币2:美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vardict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vartype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchiname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varengname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productbasicinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openday</t>
+  </si>
+  <si>
+    <t>Exchange_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +311,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -312,10 +359,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -325,6 +379,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -373,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,264 +674,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -905,6 +974,12 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -915,14 +990,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t>Exchange_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +997,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>64</v>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
@@ -13,12 +13,12 @@
     <sheet name="每日基础" sheetId="4" r:id="rId4"/>
     <sheet name="公司基本面" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,13 +286,17 @@
   </si>
   <si>
     <t>tablename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,7 +475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -999,7 +1003,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1028,8 +1032,8 @@
       <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,58 +238,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:人民币1:港币2:美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vardict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vartype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchiname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varengname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productbasicinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openday</t>
+  </si>
+  <si>
+    <t>Exchange_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_fullname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipo_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listed_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delisted_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Money_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>币种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:人民币1:港币2:美元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vardict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vartype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchiname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varengname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tablename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productbasicinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openday</t>
-  </si>
-  <si>
-    <t>Exchange_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tablename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -380,6 +439,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,16 +777,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -945,14 +1005,16 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1000,202 +1062,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
-    <sheet name="基础表名" sheetId="2" r:id="rId2"/>
-    <sheet name="交易表名" sheetId="3" r:id="rId3"/>
-    <sheet name="每日基础" sheetId="4" r:id="rId4"/>
-    <sheet name="公司基本面" sheetId="5" r:id="rId5"/>
+    <sheet name="系统基础表" sheetId="6" r:id="rId2"/>
+    <sheet name="基础表名" sheetId="2" r:id="rId3"/>
+    <sheet name="公司基本面" sheetId="5" r:id="rId4"/>
+    <sheet name="交易表名" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(60)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,18 +68,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所在地域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>市级城市，比如hangzhou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_fullname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品全称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Market_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">市场类型 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,18 +108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exchange_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交易所代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPO_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上市状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Listed_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上市日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Delisted_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,13 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Trade_date</t>
-  </si>
-  <si>
-    <t>Work_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pretrade_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上个交易日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,17 +156,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Exchange_name</t>
-  </si>
-  <si>
     <t>交易所名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Country_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国家代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Close_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal(16,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>productbasicinfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +207,6 @@
     <t>openday</t>
   </si>
   <si>
-    <t>Exchange_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tablename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,66 +215,372 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poolinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product_code_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_day_min</t>
+  </si>
+  <si>
+    <t>trade_day_max</t>
+  </si>
+  <si>
+    <t>trade_day_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_logicname</t>
+  </si>
+  <si>
+    <t>Product_code_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_code_max</t>
+  </si>
+  <si>
+    <t>最大产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_day_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_logicname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库逻辑名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与配置文件finance.xml一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_flag</t>
+  </si>
+  <si>
+    <t>db_flag</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretrade_day</t>
+  </si>
+  <si>
+    <t>exchangeinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_name</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>Productdailybasicinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover_rate</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>close_price</t>
+  </si>
+  <si>
+    <t>product_volume</t>
+  </si>
+  <si>
+    <t>delisted_date</t>
+  </si>
+  <si>
+    <t>listed_date</t>
+  </si>
+  <si>
+    <t>ipo_status</t>
+  </si>
+  <si>
+    <t>exchange_code</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>product_fullname</t>
+  </si>
+  <si>
+    <t>product_industry</t>
+  </si>
+  <si>
+    <t>product_area</t>
+  </si>
+  <si>
+    <t>money_type</t>
+  </si>
+  <si>
     <t>product_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_type</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_fullname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>market_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchange_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipo_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listed_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delisted_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_code_min</t>
+  </si>
+  <si>
+    <t>announce_date</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover_rate_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover_rate_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_ttm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe_ttm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_pb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_pb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_ttm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cicr_mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cicr_mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换手率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(9,8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换手率(%)，自由流通股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易量(万)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值/净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值/滚动净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值/净资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市净率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市销率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市销率TTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流通股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由流通股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流通市值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值(万元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,12 +609,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -426,20 +652,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -744,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,296 +989,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,168 +1487,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,14 +1564,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1260,12 +1797,164 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="433">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decimal(16,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>币种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,6 +343,9 @@
     <t>turnover_rate</t>
   </si>
   <si>
+    <t>total_share</t>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,23 +563,1198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总股本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流通股本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由流通股本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流通市值(万元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总市值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepayment</t>
+  </si>
+  <si>
+    <t>inventories</t>
+  </si>
+  <si>
+    <t>premium_receiv</t>
+  </si>
+  <si>
+    <t>reinsur_receiv</t>
+  </si>
+  <si>
+    <t>reinsur_res_receiv</t>
+  </si>
+  <si>
+    <t>pur_resale_fa</t>
+  </si>
+  <si>
+    <t>oth_cur_assets</t>
+  </si>
+  <si>
+    <t>total_cur_assets</t>
+  </si>
+  <si>
+    <t>fa_avail_for_sale</t>
+  </si>
+  <si>
+    <t>htm_invest</t>
+  </si>
+  <si>
+    <t>long_stock_invest</t>
+  </si>
+  <si>
+    <t>invest_real_estate</t>
+  </si>
+  <si>
+    <t>time_deposits</t>
+  </si>
+  <si>
+    <t>oth_assets</t>
+  </si>
+  <si>
+    <t>fix_assets</t>
+  </si>
+  <si>
+    <t>const_materials</t>
+  </si>
+  <si>
+    <t>fixed_assets_disp</t>
+  </si>
+  <si>
+    <t>produc_bio_assets</t>
+  </si>
+  <si>
+    <t>oil_and_gas_assets</t>
+  </si>
+  <si>
+    <t>intan_assets</t>
+  </si>
+  <si>
+    <t>goodwill</t>
+  </si>
+  <si>
+    <t>defer_tax_assets</t>
+  </si>
+  <si>
+    <t>decr_in_disbur</t>
+  </si>
+  <si>
+    <t>cash_reser_cb</t>
+  </si>
+  <si>
+    <t>depos_in_oth_bfi</t>
+  </si>
+  <si>
+    <t>prec_metals</t>
+  </si>
+  <si>
+    <t>deriv_assets</t>
+  </si>
+  <si>
+    <t>rr_reins_une_prem</t>
+  </si>
+  <si>
+    <t>rr_reins_outstd_cla</t>
+  </si>
+  <si>
+    <t>rr_reins_lins_liab</t>
+  </si>
+  <si>
+    <t>rr_reins_lthins_liab</t>
+  </si>
+  <si>
+    <t>refund_depos</t>
+  </si>
+  <si>
+    <t>ph_pledge_loans</t>
+  </si>
+  <si>
+    <t>refund_cap_depos</t>
+  </si>
+  <si>
+    <t>indep_acct_assets</t>
+  </si>
+  <si>
+    <t>client_depos</t>
+  </si>
+  <si>
+    <t>client_prov</t>
+  </si>
+  <si>
+    <t>transac_seat_fee</t>
+  </si>
+  <si>
+    <t>invest_as_receiv</t>
+  </si>
+  <si>
+    <t>total_assets</t>
+  </si>
+  <si>
+    <t>depos_ib_deposits</t>
+  </si>
+  <si>
+    <t>loan_oth_bank</t>
+  </si>
+  <si>
+    <t>notes_payable</t>
+  </si>
+  <si>
+    <t>acct_payable</t>
+  </si>
+  <si>
+    <t>adv_receipts</t>
+  </si>
+  <si>
+    <t>sold_for_repur_fa</t>
+  </si>
+  <si>
+    <t>comm_payable</t>
+  </si>
+  <si>
+    <t>payroll_payable</t>
+  </si>
+  <si>
+    <t>taxes_payable</t>
+  </si>
+  <si>
+    <t>interst_payable</t>
+  </si>
+  <si>
+    <t>dividend_payable</t>
+  </si>
+  <si>
+    <t>oth_payable</t>
+  </si>
+  <si>
+    <t>acc_exp</t>
+  </si>
+  <si>
+    <t>deferred_inc</t>
+  </si>
+  <si>
+    <t>st_bonds_payable</t>
+  </si>
+  <si>
+    <t>payable_to_reinsurer</t>
+  </si>
+  <si>
+    <t>rsrv_insur_cont</t>
+  </si>
+  <si>
+    <t>acting_trading_sec</t>
+  </si>
+  <si>
+    <t>acting_uw_sec</t>
+  </si>
+  <si>
+    <t>non_cur_liab_due_1y</t>
+  </si>
+  <si>
+    <t>oth_cur_liab</t>
+  </si>
+  <si>
+    <t>total_cur_liab</t>
+  </si>
+  <si>
+    <t>bond_payable</t>
+  </si>
+  <si>
+    <t>specific_payables</t>
+  </si>
+  <si>
+    <t>estimated_liab</t>
+  </si>
+  <si>
+    <t>defer_tax_liab</t>
+  </si>
+  <si>
+    <t>defer_inc_non_cur_liab</t>
+  </si>
+  <si>
+    <t>depos_oth_bfi</t>
+  </si>
+  <si>
+    <t>deriv_liab</t>
+  </si>
+  <si>
+    <t>depos</t>
+  </si>
+  <si>
+    <t>agency_bus_liab</t>
+  </si>
+  <si>
+    <t>oth_liab</t>
+  </si>
+  <si>
+    <t>prem_receiv_adva</t>
+  </si>
+  <si>
+    <t>depos_received</t>
+  </si>
+  <si>
+    <t>ph_invest</t>
+  </si>
+  <si>
+    <t>reser_une_prem</t>
+  </si>
+  <si>
+    <t>reser_outstd_claims</t>
+  </si>
+  <si>
+    <t>reser_lins_liab</t>
+  </si>
+  <si>
+    <t>reser_lthins_liab</t>
+  </si>
+  <si>
+    <t>indept_acc_liab</t>
+  </si>
+  <si>
+    <t>pledge_borr</t>
+  </si>
+  <si>
+    <t>indem_payable</t>
+  </si>
+  <si>
+    <t>policy_div_payable</t>
+  </si>
+  <si>
+    <t>total_liab</t>
+  </si>
+  <si>
+    <t>treasury_share</t>
+  </si>
+  <si>
+    <t>ordin_risk_reser</t>
+  </si>
+  <si>
+    <t>forex_differ</t>
+  </si>
+  <si>
+    <t>invest_loss_unconf</t>
+  </si>
+  <si>
+    <t>minority_int</t>
+  </si>
+  <si>
+    <t>total_hldr_eqy_exc_min_int</t>
+  </si>
+  <si>
+    <t>total_hldr_eqy_inc_min_int</t>
+  </si>
+  <si>
+    <t>total_liab_hldr_eqy</t>
+  </si>
+  <si>
+    <t>lt_payroll_payable</t>
+  </si>
+  <si>
+    <t>oth_comp_income</t>
+  </si>
+  <si>
+    <t>oth_eqt_tools</t>
+  </si>
+  <si>
+    <t>oth_eqt_tools_p_shr</t>
+  </si>
+  <si>
+    <t>lending_funds</t>
+  </si>
+  <si>
+    <t>acc_receivable</t>
+  </si>
+  <si>
+    <t>st_fin_payable</t>
+  </si>
+  <si>
+    <t>payables</t>
+  </si>
+  <si>
+    <t>hfs_assets</t>
+  </si>
+  <si>
+    <t>hfs_sales</t>
+  </si>
+  <si>
+    <t>update_flag</t>
+  </si>
+  <si>
+    <t>tablename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_balance_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_announce_date</t>
+  </si>
+  <si>
+    <t>report_date</t>
+  </si>
+  <si>
+    <t>company_type</t>
+  </si>
+  <si>
+    <t>cap_rese</t>
+  </si>
+  <si>
+    <t>nudistr_profit</t>
+  </si>
+  <si>
+    <t>surplus_rese</t>
+  </si>
+  <si>
+    <t>special_rese</t>
+  </si>
+  <si>
+    <t>money_cap</t>
+  </si>
+  <si>
+    <t>trade_asset</t>
+  </si>
+  <si>
+    <t>notes_willreceiv</t>
+  </si>
+  <si>
+    <t>accounts_willreceiv</t>
+  </si>
+  <si>
+    <t>other_willreceiv</t>
+  </si>
+  <si>
+    <t>dividend_willreceiv</t>
+  </si>
+  <si>
+    <t>interest_willreceiv</t>
+  </si>
+  <si>
+    <t>amor_exp</t>
+  </si>
+  <si>
+    <t>notcash_within_1y</t>
+  </si>
+  <si>
+    <t>sett_rsrv</t>
+  </si>
+  <si>
+    <t>loanto_oth_bank_fi</t>
+  </si>
+  <si>
+    <t>long_term_rec</t>
+  </si>
+  <si>
+    <t>constr_in_process</t>
+  </si>
+  <si>
+    <t>study_spending</t>
+  </si>
+  <si>
+    <t>long_term_amor_exp</t>
+  </si>
+  <si>
+    <t>other_not_cash</t>
+  </si>
+  <si>
+    <t>total_not_cash</t>
+  </si>
+  <si>
+    <t>long_borrow</t>
+  </si>
+  <si>
+    <t>short_borrow</t>
+  </si>
+  <si>
+    <t>central_bank_borrow</t>
+  </si>
+  <si>
+    <t>trading_finance_load</t>
+  </si>
+  <si>
+    <t>long_money_payable</t>
+  </si>
+  <si>
+    <t>other_not_cur_load</t>
+  </si>
+  <si>
+    <t>total_not_cur_load</t>
+  </si>
+  <si>
+    <t>最终公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分配利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈余公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收票据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收股利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期待摊费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年内到期的非流动资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算备付金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆出资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收分保账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收分保合同准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入返售金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可供出售金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有至到期投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期股权投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期应收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在建工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程物资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产性生物资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油气资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递延所得税资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放贷款及垫款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非流动资产合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金及存放中央银行款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放同业和其它金融机构款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衍生金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收分保未到期责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收分保未决赔款准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收分保寿险责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收分保长期健康险责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存出保证金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保户质押贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存出资本保证金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立账户资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中：客户资金存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中：客户备付金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易席位费</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款项类投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向中央银行借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收存款及同业存放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆入资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易性金融负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付票据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出回购金融资产款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付手续费及佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交税费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付股利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预提费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递延收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付短期债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付分保账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险合同准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理买卖证券款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理承销证券款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动负债合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期应付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项应付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递延所得税负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>递延收益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非流动负债</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非流动负债合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同业和其它金融机构存放款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衍生金融负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理业务负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入保证金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保户储金及投资款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未到期责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未决赔款准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿险责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期健康险责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立账户负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质押借款</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付赔付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付保单红利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>减</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存股</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般风险准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外币报表折算差额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认的投资损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>股东权益合计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不含少数股东权益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>股东权益合计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含少数股东权益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债及股东权益总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期应付职工薪酬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他权益工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其他权益工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融出资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付短期融资款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有待售的资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有待售的负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1一般工商业
+2 银行
+3 保险
+4 证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201803,
+201806,
+201809,
+201812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(12,2)</t>
+  </si>
+  <si>
+    <t>decimal(12,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(12,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(11,8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本(万)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流通股本(万)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由流通股本(万)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(12,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap_rese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_cashflow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +1762,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +1784,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -625,7 +1811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -648,11 +1834,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -667,6 +1866,16 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -971,17 +2180,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D41"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
@@ -1004,16 +2213,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1042,7 +2251,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1090,7 +2299,7 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1102,7 +2311,7 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1116,7 +2325,7 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1128,7 +2337,7 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1142,7 +2351,7 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -1154,11 +2363,11 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -1166,11 +2375,11 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
@@ -1178,13 +2387,13 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -1192,13 +2401,13 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -1206,11 +2415,11 @@
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>36</v>
@@ -1218,30 +2427,30 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1252,87 +2461,87 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>131</v>
@@ -1340,47 +2549,55 @@
       <c r="C28" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="C30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="11" t="s">
+        <v>419</v>
+      </c>
       <c r="C31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1388,11 +2605,13 @@
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1400,11 +2619,13 @@
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1412,71 +2633,1567 @@
       <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>421</v>
+      </c>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>423</v>
+      </c>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="C41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1501,50 +4218,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1552,7 +4269,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +4284,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1580,23 +4297,23 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1604,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
@@ -1625,41 +4342,41 @@
         <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1667,14 +4384,14 @@
         <v>97</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1684,7 +4401,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1696,7 +4413,7 @@
         <v>95</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1708,7 +4425,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1720,7 +4437,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1732,7 +4449,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1744,7 +4461,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1756,7 +4473,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1768,7 +4485,7 @@
         <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1784,12 +4501,1167 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1812,10 +5684,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1823,7 +5695,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1831,7 +5703,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1839,7 +5711,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1847,7 +5719,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1895,7 +5767,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1911,7 +5783,7 @@
         <v>119</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -1927,7 +5799,7 @@
         <v>122</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1935,7 +5807,7 @@
         <v>124</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1951,7 +5823,7 @@
         <v>128</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="基础表名" sheetId="2" r:id="rId3"/>
     <sheet name="公司基本面" sheetId="5" r:id="rId4"/>
     <sheet name="交易表名" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="783">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1757,12 +1758,1419 @@
     <t>company_cashflow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>n_incr_loans_cb</t>
+  </si>
+  <si>
+    <t>n_inc_borr_oth_fi</t>
+  </si>
+  <si>
+    <t>prem_fr_orig_contr</t>
+  </si>
+  <si>
+    <t>n_incr_insured_dep</t>
+  </si>
+  <si>
+    <t>n_reinsur_prem</t>
+  </si>
+  <si>
+    <t>n_incr_disp_tfa</t>
+  </si>
+  <si>
+    <t>ifc_cash_incr</t>
+  </si>
+  <si>
+    <t>n_incr_disp_faas</t>
+  </si>
+  <si>
+    <t>n_incr_loans_oth_bank</t>
+  </si>
+  <si>
+    <t>n_cap_incr_repur</t>
+  </si>
+  <si>
+    <t>c_fr_oth_operate_a</t>
+  </si>
+  <si>
+    <t>c_inf_fr_operate_a</t>
+  </si>
+  <si>
+    <t>c_paid_goods_s</t>
+  </si>
+  <si>
+    <t>c_paid_to_for_empl</t>
+  </si>
+  <si>
+    <t>c_paid_for_taxes</t>
+  </si>
+  <si>
+    <t>n_incr_clt_loan_adv</t>
+  </si>
+  <si>
+    <t>n_incr_dep_cbob</t>
+  </si>
+  <si>
+    <t>c_pay_claims_orig_inco</t>
+  </si>
+  <si>
+    <t>pay_handling_chrg</t>
+  </si>
+  <si>
+    <t>pay_comm_insur_plcy</t>
+  </si>
+  <si>
+    <t>oth_cash_pay_oper_act</t>
+  </si>
+  <si>
+    <t>st_cash_out_act</t>
+  </si>
+  <si>
+    <t>n_cashflow_act</t>
+  </si>
+  <si>
+    <t>oth_recp_ral_inv_act</t>
+  </si>
+  <si>
+    <t>c_disp_withdrwl_invest</t>
+  </si>
+  <si>
+    <t>c_recp_return_invest</t>
+  </si>
+  <si>
+    <t>n_recp_disp_fiolta</t>
+  </si>
+  <si>
+    <t>n_recp_disp_sobu</t>
+  </si>
+  <si>
+    <t>stot_inflows_inv_act</t>
+  </si>
+  <si>
+    <t>c_pay_acq_const_fiolta</t>
+  </si>
+  <si>
+    <t>c_paid_invest</t>
+  </si>
+  <si>
+    <t>n_disp_subs_oth_biz</t>
+  </si>
+  <si>
+    <t>oth_pay_ral_inv_act</t>
+  </si>
+  <si>
+    <t>n_incr_pledge_loan</t>
+  </si>
+  <si>
+    <t>stot_out_inv_act</t>
+  </si>
+  <si>
+    <t>n_cashflow_inv_act</t>
+  </si>
+  <si>
+    <t>c_recp_borrow</t>
+  </si>
+  <si>
+    <t>proc_issue_bonds</t>
+  </si>
+  <si>
+    <t>oth_cash_recp_ral_fnc_act</t>
+  </si>
+  <si>
+    <t>stot_cash_in_fnc_act</t>
+  </si>
+  <si>
+    <t>free_cashflow</t>
+  </si>
+  <si>
+    <t>c_prepay_amt_borr</t>
+  </si>
+  <si>
+    <t>c_pay_dist_dpcp_int_exp</t>
+  </si>
+  <si>
+    <t>incl_dvd_profit_paid_sc_ms</t>
+  </si>
+  <si>
+    <t>oth_cashpay_ral_fnc_act</t>
+  </si>
+  <si>
+    <t>stot_cashout_fnc_act</t>
+  </si>
+  <si>
+    <t>n_cash_flows_fnc_act</t>
+  </si>
+  <si>
+    <t>eff_fx_flu_cash</t>
+  </si>
+  <si>
+    <t>n_incr_cash_cash_equ</t>
+  </si>
+  <si>
+    <t>c_cash_equ_beg_period</t>
+  </si>
+  <si>
+    <t>c_cash_equ_end_period</t>
+  </si>
+  <si>
+    <t>c_recp_cap_contrib</t>
+  </si>
+  <si>
+    <t>incl_cash_rec_saims</t>
+  </si>
+  <si>
+    <t>uncon_invest_loss</t>
+  </si>
+  <si>
+    <t>prov_depr_assets</t>
+  </si>
+  <si>
+    <t>depr_fa_coga_dpba</t>
+  </si>
+  <si>
+    <t>amort_intang_assets</t>
+  </si>
+  <si>
+    <t>lt_amort_deferred_exp</t>
+  </si>
+  <si>
+    <t>decr_deferred_exp</t>
+  </si>
+  <si>
+    <t>incr_acc_exp</t>
+  </si>
+  <si>
+    <t>loss_disp_fiolta</t>
+  </si>
+  <si>
+    <t>loss_scr_fa</t>
+  </si>
+  <si>
+    <t>loss_fv_chg</t>
+  </si>
+  <si>
+    <t>invest_loss</t>
+  </si>
+  <si>
+    <t>decr_def_inc_tax_assets</t>
+  </si>
+  <si>
+    <t>incr_def_inc_tax_liab</t>
+  </si>
+  <si>
+    <t>decr_inventories</t>
+  </si>
+  <si>
+    <t>decr_oper_payable</t>
+  </si>
+  <si>
+    <t>incr_oper_payable</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>conv_debt_into_cap</t>
+  </si>
+  <si>
+    <t>conv_copbonds_due_within_1y</t>
+  </si>
+  <si>
+    <t>fa_fnc_leases</t>
+  </si>
+  <si>
+    <t>end_bal_cash</t>
+  </si>
+  <si>
+    <t>beg_bal_cash</t>
+  </si>
+  <si>
+    <t>end_bal_cash_equ</t>
+  </si>
+  <si>
+    <t>beg_bal_cash_equ</t>
+  </si>
+  <si>
+    <t>im_n_incr_cash_equ</t>
+  </si>
+  <si>
+    <t>net_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finan_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_fr_sale_sg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_depos_incr_fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售商品、提供劳务收到的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到的税费返还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户存款和同业存放款项净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向中央银行借款净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向其他金融机构拆入资金净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收到原保险合同保费取得的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保户储金净增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收到再保业务现金净</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>处置交易性金融资产净增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取利息和手续费净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置可供出售金融资产净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆入资金净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购业务资金净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动现金流入小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品、接受劳务支付的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付给职工以及为职工支付的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付的各项税费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户贷款及垫款净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放央行和同业款项净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付原保险合同赔付款项的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付手续费的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付保单红利的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动现金流出小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回投资收到的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置子公司及其他营业单位收到的现金净额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资活动现金流入小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资支付的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位支付的现金净额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付其他与投资活动有关的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质押贷款净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资活动现金流出小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资活动产生的现金流量净额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取得借款收到的现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行债券收到的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到其他与筹资活动有关的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹资活动现金流入小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业自由现金流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿还债务支付的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配股利、利润或偿付利息支付的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子公司支付给少数股东的股利、利润</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付其他与筹资活动有关的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹资活动现金流出小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹资活动产生的现金流量净额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率变动对现金的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金及现金等价物净增加额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初现金及现金等价物余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末现金及现金等价物余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收投资收到的现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子公司吸收少数股东投资收到的现金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认投资损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资产减值准备</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产折旧、油气资产折耗、生产性生物资产折旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形资产摊销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期待摊费用摊销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待摊费用减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预提费用增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置固定、无形资产和其他长期资产的损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产报废损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公允价值变动损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递延所得税资产减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递延所得税负债增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货的减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营性应收项目的减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recp_tax_rends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_eps</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>基本每股收益</t>
+  </si>
+  <si>
+    <t>diluted_eps</t>
+  </si>
+  <si>
+    <t>稀释每股收益</t>
+  </si>
+  <si>
+    <t>total_revenue</t>
+  </si>
+  <si>
+    <t>营业总收入</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>营业收入</t>
+  </si>
+  <si>
+    <t>int_income</t>
+  </si>
+  <si>
+    <t>利息收入</t>
+  </si>
+  <si>
+    <t>prem_earned</t>
+  </si>
+  <si>
+    <t>已赚保费</t>
+  </si>
+  <si>
+    <t>comm_income</t>
+  </si>
+  <si>
+    <t>手续费及佣金收入</t>
+  </si>
+  <si>
+    <t>n_commis_income</t>
+  </si>
+  <si>
+    <t>手续费及佣金净收入</t>
+  </si>
+  <si>
+    <t>n_oth_income</t>
+  </si>
+  <si>
+    <t>其他经营净收益</t>
+  </si>
+  <si>
+    <t>n_oth_b_income</t>
+  </si>
+  <si>
+    <t>加:其他业务净收益</t>
+  </si>
+  <si>
+    <t>prem_income</t>
+  </si>
+  <si>
+    <t>保险业务收入</t>
+  </si>
+  <si>
+    <t>out_prem</t>
+  </si>
+  <si>
+    <t>减:分出保费</t>
+  </si>
+  <si>
+    <t>une_prem_reser</t>
+  </si>
+  <si>
+    <t>提取未到期责任准备金</t>
+  </si>
+  <si>
+    <t>reins_income</t>
+  </si>
+  <si>
+    <t>其中:分保费收入</t>
+  </si>
+  <si>
+    <t>n_sec_tb_income</t>
+  </si>
+  <si>
+    <t>代理买卖证券业务净收入</t>
+  </si>
+  <si>
+    <t>n_sec_uw_income</t>
+  </si>
+  <si>
+    <t>证券承销业务净收入</t>
+  </si>
+  <si>
+    <t>n_asset_mg_income</t>
+  </si>
+  <si>
+    <t>受托客户资产管理业务净收入</t>
+  </si>
+  <si>
+    <t>oth_b_income</t>
+  </si>
+  <si>
+    <t>其他业务收入</t>
+  </si>
+  <si>
+    <t>fv_value_chg_gain</t>
+  </si>
+  <si>
+    <t>加:公允价值变动净收益</t>
+  </si>
+  <si>
+    <t>invest_income</t>
+  </si>
+  <si>
+    <t>加:投资净收益</t>
+  </si>
+  <si>
+    <t>ass_invest_income</t>
+  </si>
+  <si>
+    <t>其中:对联营企业和合营企业的投资收益</t>
+  </si>
+  <si>
+    <t>forex_gain</t>
+  </si>
+  <si>
+    <t>加:汇兑净收益</t>
+  </si>
+  <si>
+    <t>total_cogs</t>
+  </si>
+  <si>
+    <t>营业总成本</t>
+  </si>
+  <si>
+    <t>oper_cost</t>
+  </si>
+  <si>
+    <t>减:营业成本</t>
+  </si>
+  <si>
+    <t>int_exp</t>
+  </si>
+  <si>
+    <t>减:利息支出</t>
+  </si>
+  <si>
+    <t>comm_exp</t>
+  </si>
+  <si>
+    <t>减:手续费及佣金支出</t>
+  </si>
+  <si>
+    <t>biz_tax_surchg</t>
+  </si>
+  <si>
+    <t>减:营业税金及附加</t>
+  </si>
+  <si>
+    <t>sell_exp</t>
+  </si>
+  <si>
+    <t>减:销售费用</t>
+  </si>
+  <si>
+    <t>admin_exp</t>
+  </si>
+  <si>
+    <t>减:管理费用</t>
+  </si>
+  <si>
+    <t>fin_exp</t>
+  </si>
+  <si>
+    <t>减:财务费用</t>
+  </si>
+  <si>
+    <t>assets_impair_loss</t>
+  </si>
+  <si>
+    <t>减:资产减值损失</t>
+  </si>
+  <si>
+    <t>prem_refund</t>
+  </si>
+  <si>
+    <t>退保金</t>
+  </si>
+  <si>
+    <t>compens_payout</t>
+  </si>
+  <si>
+    <t>赔付总支出</t>
+  </si>
+  <si>
+    <t>reser_insur_liab</t>
+  </si>
+  <si>
+    <t>提取保险责任准备金</t>
+  </si>
+  <si>
+    <t>div_payt</t>
+  </si>
+  <si>
+    <t>保户红利支出</t>
+  </si>
+  <si>
+    <t>reins_exp</t>
+  </si>
+  <si>
+    <t>分保费用</t>
+  </si>
+  <si>
+    <t>oper_exp</t>
+  </si>
+  <si>
+    <t>营业支出</t>
+  </si>
+  <si>
+    <t>compens_payout_refu</t>
+  </si>
+  <si>
+    <t>减:摊回赔付支出</t>
+  </si>
+  <si>
+    <t>insur_reser_refu</t>
+  </si>
+  <si>
+    <t>减:摊回保险责任准备金</t>
+  </si>
+  <si>
+    <t>reins_cost_refund</t>
+  </si>
+  <si>
+    <t>减:摊回分保费用</t>
+  </si>
+  <si>
+    <t>other_bus_cost</t>
+  </si>
+  <si>
+    <t>其他业务成本</t>
+  </si>
+  <si>
+    <t>operate_profit</t>
+  </si>
+  <si>
+    <t>营业利润</t>
+  </si>
+  <si>
+    <t>non_oper_income</t>
+  </si>
+  <si>
+    <t>加:营业外收入</t>
+  </si>
+  <si>
+    <t>non_oper_exp</t>
+  </si>
+  <si>
+    <t>减:营业外支出</t>
+  </si>
+  <si>
+    <t>nca_disploss</t>
+  </si>
+  <si>
+    <t>其中:减:非流动资产处置净损失</t>
+  </si>
+  <si>
+    <t>total_profit</t>
+  </si>
+  <si>
+    <t>利润总额</t>
+  </si>
+  <si>
+    <t>income_tax</t>
+  </si>
+  <si>
+    <t>所得税费用</t>
+  </si>
+  <si>
+    <t>n_income</t>
+  </si>
+  <si>
+    <t>净利润(含少数股东损益)</t>
+  </si>
+  <si>
+    <t>n_income_attr_p</t>
+  </si>
+  <si>
+    <t>净利润(不含少数股东损益)</t>
+  </si>
+  <si>
+    <t>minority_gain</t>
+  </si>
+  <si>
+    <t>少数股东损益</t>
+  </si>
+  <si>
+    <t>oth_compr_income</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>t_compr_income</t>
+  </si>
+  <si>
+    <t>综合收益总额</t>
+  </si>
+  <si>
+    <t>compr_inc_attr_p</t>
+  </si>
+  <si>
+    <t>归属于母公司(或股东)的综合收益总额</t>
+  </si>
+  <si>
+    <t>compr_inc_attr_m_s</t>
+  </si>
+  <si>
+    <t>归属于少数股东的综合收益总额</t>
+  </si>
+  <si>
+    <t>ebit</t>
+  </si>
+  <si>
+    <t>息税前利润</t>
+  </si>
+  <si>
+    <t>ebitda</t>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润</t>
+  </si>
+  <si>
+    <t>insurance_exp</t>
+  </si>
+  <si>
+    <t>保险业务支出</t>
+  </si>
+  <si>
+    <t>undist_profit</t>
+  </si>
+  <si>
+    <t>年初未分配利润</t>
+  </si>
+  <si>
+    <t>distable_profit</t>
+  </si>
+  <si>
+    <t>可分配利润</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>更新标识，0未修改1更正过</t>
+  </si>
+  <si>
+    <t>经营性应付项目的增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务转为资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年内到期的可转换公司债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资租入固定资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金的期末余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>减</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金的期初余额</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金等价物的期末余额</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>减</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金等价物的期初余额</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>现金及现金等价物净增加额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间接法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本每股收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀释每股收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已赚保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费及佣金收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费及佣金净收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他经营净收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加:其他业务净收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险业务收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:分出保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取未到期责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中:分保费收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理买卖证券业务净收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券承销业务净收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受托客户资产管理业务净收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他业务收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加:公允价值变动净收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加:投资净收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中:对联营企业和合营企业的投资收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加:汇兑净收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业总成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:营业成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:利息支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:手续费及佣金支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:营业税金及附加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:销售费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:管理费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:财务费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:资产减值损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退保金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔付总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取保险责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保户红利支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分保费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:摊回赔付支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:摊回保险责任准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:摊回分保费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他业务成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加:营业外收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减:营业外支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中:减:非流动资产处置净损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所得税费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润(含少数股东损益)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润(不含少数股东损益)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数股东损益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合收益总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属于母公司(或股东)的综合收益总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属于少数股东的综合收益总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息税前利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险业务支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年初未分配利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可分配利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,6 +3204,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1811,7 +3224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1847,11 +3260,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1867,15 +3317,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2180,10 +3638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2299,7 +3757,7 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2311,7 +3769,7 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2325,7 +3783,7 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2337,7 +3795,7 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2351,7 +3809,7 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -2363,7 +3821,7 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -2375,7 +3833,7 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2387,7 +3845,7 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2401,7 +3859,7 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2415,7 +3873,7 @@
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -2427,7 +3885,7 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -2437,7 +3895,7 @@
         <v>418</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -2449,7 +3907,7 @@
       <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2463,7 +3921,7 @@
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -2475,7 +3933,7 @@
       <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -2487,7 +3945,7 @@
       <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -2499,7 +3957,7 @@
       <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -2511,7 +3969,7 @@
       <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2525,7 +3983,7 @@
       <c r="C26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -2537,7 +3995,7 @@
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -2549,7 +4007,7 @@
       <c r="C28" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -2561,7 +4019,7 @@
       <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -2573,7 +4031,7 @@
       <c r="C30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -2585,7 +4043,7 @@
       <c r="C31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2597,7 +4055,7 @@
       <c r="C32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2611,7 +4069,7 @@
       <c r="C33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2625,7 +4083,7 @@
       <c r="C34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2639,7 +4097,7 @@
       <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -2651,7 +4109,7 @@
       <c r="C36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -2663,7 +4121,7 @@
       <c r="C37" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -2675,7 +4133,7 @@
       <c r="C38" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -2687,7 +4145,7 @@
       <c r="C39" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -2699,7 +4157,7 @@
       <c r="C40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -2711,7 +4169,7 @@
       <c r="C41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2734,7 +4192,7 @@
       <c r="C43" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>415</v>
       </c>
     </row>
@@ -2748,7 +4206,7 @@
       <c r="C44" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>414</v>
       </c>
     </row>
@@ -2762,7 +4220,7 @@
       <c r="C45" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -4194,6 +5652,1572 @@
       <c r="C175" s="1" t="s">
         <v>413</v>
       </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="9"/>
+      <c r="C318" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4501,21 +7525,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>248</v>
       </c>
@@ -4528,8 +7554,14 @@
       <c r="E1" s="4" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -4542,8 +7574,14 @@
       <c r="E2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -4556,8 +7594,14 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
@@ -4570,8 +7614,14 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>251</v>
       </c>
@@ -4584,8 +7634,14 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>252</v>
       </c>
@@ -4598,8 +7654,14 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G6" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -4607,677 +7669,1535 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>511</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G7" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D12" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D15" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D20" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D22" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D23" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D24" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D28" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D29" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D30" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D31" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D32" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D33" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D34" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D35" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D36" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D37" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D38" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D39" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D41" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D42" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D44" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D45" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D46" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D47" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D48" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D49" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D50" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D51" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D52" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D53" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D54" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E54" s="15">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D55" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D56" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D57" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D58" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D59" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E59" s="15">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D60" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D61" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D62" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D63" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D64" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D65" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D66" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E66" s="15">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B67" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D67" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E67" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B68" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D68" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E68" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D70" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E70" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E71" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B72" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D72" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E72" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D73" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E73" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D74" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E74" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D75" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D76" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E76" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D77" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B78" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D78" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E78" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D79" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D80" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E80" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D81" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E81" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D82" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E82" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D83" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E83" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D84" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D85" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D86" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E86" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D87" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E87" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D88" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E88" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D89" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E89" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>203</v>
       </c>
@@ -5285,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>204</v>
       </c>
@@ -5293,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>205</v>
       </c>
@@ -5301,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>206</v>
       </c>
@@ -5309,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>207</v>
       </c>
@@ -5317,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>278</v>
       </c>
@@ -5830,4 +9750,864 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection sqref="A1:A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="基础表名" sheetId="2" r:id="rId3"/>
     <sheet name="公司基本面" sheetId="5" r:id="rId4"/>
     <sheet name="交易表名" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="719">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2428,370 +2427,178 @@
     <t>basic_eps</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>基本每股收益</t>
-  </si>
-  <si>
     <t>diluted_eps</t>
   </si>
   <si>
-    <t>稀释每股收益</t>
-  </si>
-  <si>
     <t>total_revenue</t>
   </si>
   <si>
-    <t>营业总收入</t>
-  </si>
-  <si>
     <t>revenue</t>
   </si>
   <si>
-    <t>营业收入</t>
-  </si>
-  <si>
     <t>int_income</t>
   </si>
   <si>
-    <t>利息收入</t>
-  </si>
-  <si>
     <t>prem_earned</t>
   </si>
   <si>
-    <t>已赚保费</t>
-  </si>
-  <si>
     <t>comm_income</t>
   </si>
   <si>
-    <t>手续费及佣金收入</t>
-  </si>
-  <si>
     <t>n_commis_income</t>
   </si>
   <si>
-    <t>手续费及佣金净收入</t>
-  </si>
-  <si>
     <t>n_oth_income</t>
   </si>
   <si>
-    <t>其他经营净收益</t>
-  </si>
-  <si>
     <t>n_oth_b_income</t>
   </si>
   <si>
-    <t>加:其他业务净收益</t>
-  </si>
-  <si>
     <t>prem_income</t>
   </si>
   <si>
-    <t>保险业务收入</t>
-  </si>
-  <si>
     <t>out_prem</t>
   </si>
   <si>
-    <t>减:分出保费</t>
-  </si>
-  <si>
     <t>une_prem_reser</t>
   </si>
   <si>
-    <t>提取未到期责任准备金</t>
-  </si>
-  <si>
     <t>reins_income</t>
   </si>
   <si>
-    <t>其中:分保费收入</t>
-  </si>
-  <si>
     <t>n_sec_tb_income</t>
   </si>
   <si>
-    <t>代理买卖证券业务净收入</t>
-  </si>
-  <si>
     <t>n_sec_uw_income</t>
   </si>
   <si>
-    <t>证券承销业务净收入</t>
-  </si>
-  <si>
     <t>n_asset_mg_income</t>
   </si>
   <si>
-    <t>受托客户资产管理业务净收入</t>
-  </si>
-  <si>
     <t>oth_b_income</t>
   </si>
   <si>
-    <t>其他业务收入</t>
-  </si>
-  <si>
     <t>fv_value_chg_gain</t>
   </si>
   <si>
-    <t>加:公允价值变动净收益</t>
-  </si>
-  <si>
     <t>invest_income</t>
   </si>
   <si>
-    <t>加:投资净收益</t>
-  </si>
-  <si>
     <t>ass_invest_income</t>
   </si>
   <si>
-    <t>其中:对联营企业和合营企业的投资收益</t>
-  </si>
-  <si>
     <t>forex_gain</t>
   </si>
   <si>
-    <t>加:汇兑净收益</t>
-  </si>
-  <si>
     <t>total_cogs</t>
   </si>
   <si>
-    <t>营业总成本</t>
-  </si>
-  <si>
     <t>oper_cost</t>
   </si>
   <si>
-    <t>减:营业成本</t>
-  </si>
-  <si>
     <t>int_exp</t>
   </si>
   <si>
-    <t>减:利息支出</t>
-  </si>
-  <si>
     <t>comm_exp</t>
   </si>
   <si>
-    <t>减:手续费及佣金支出</t>
-  </si>
-  <si>
     <t>biz_tax_surchg</t>
   </si>
   <si>
-    <t>减:营业税金及附加</t>
-  </si>
-  <si>
     <t>sell_exp</t>
   </si>
   <si>
-    <t>减:销售费用</t>
-  </si>
-  <si>
     <t>admin_exp</t>
   </si>
   <si>
-    <t>减:管理费用</t>
-  </si>
-  <si>
     <t>fin_exp</t>
   </si>
   <si>
-    <t>减:财务费用</t>
-  </si>
-  <si>
     <t>assets_impair_loss</t>
   </si>
   <si>
-    <t>减:资产减值损失</t>
-  </si>
-  <si>
     <t>prem_refund</t>
   </si>
   <si>
-    <t>退保金</t>
-  </si>
-  <si>
     <t>compens_payout</t>
   </si>
   <si>
-    <t>赔付总支出</t>
-  </si>
-  <si>
     <t>reser_insur_liab</t>
   </si>
   <si>
-    <t>提取保险责任准备金</t>
-  </si>
-  <si>
     <t>div_payt</t>
   </si>
   <si>
-    <t>保户红利支出</t>
-  </si>
-  <si>
     <t>reins_exp</t>
   </si>
   <si>
-    <t>分保费用</t>
-  </si>
-  <si>
     <t>oper_exp</t>
   </si>
   <si>
-    <t>营业支出</t>
-  </si>
-  <si>
     <t>compens_payout_refu</t>
   </si>
   <si>
-    <t>减:摊回赔付支出</t>
-  </si>
-  <si>
     <t>insur_reser_refu</t>
   </si>
   <si>
-    <t>减:摊回保险责任准备金</t>
-  </si>
-  <si>
     <t>reins_cost_refund</t>
   </si>
   <si>
-    <t>减:摊回分保费用</t>
-  </si>
-  <si>
     <t>other_bus_cost</t>
   </si>
   <si>
-    <t>其他业务成本</t>
-  </si>
-  <si>
     <t>operate_profit</t>
   </si>
   <si>
-    <t>营业利润</t>
-  </si>
-  <si>
     <t>non_oper_income</t>
   </si>
   <si>
-    <t>加:营业外收入</t>
-  </si>
-  <si>
     <t>non_oper_exp</t>
   </si>
   <si>
-    <t>减:营业外支出</t>
-  </si>
-  <si>
     <t>nca_disploss</t>
   </si>
   <si>
-    <t>其中:减:非流动资产处置净损失</t>
-  </si>
-  <si>
     <t>total_profit</t>
   </si>
   <si>
-    <t>利润总额</t>
-  </si>
-  <si>
     <t>income_tax</t>
   </si>
   <si>
-    <t>所得税费用</t>
-  </si>
-  <si>
     <t>n_income</t>
   </si>
   <si>
-    <t>净利润(含少数股东损益)</t>
-  </si>
-  <si>
     <t>n_income_attr_p</t>
   </si>
   <si>
-    <t>净利润(不含少数股东损益)</t>
-  </si>
-  <si>
     <t>minority_gain</t>
   </si>
   <si>
-    <t>少数股东损益</t>
-  </si>
-  <si>
     <t>oth_compr_income</t>
   </si>
   <si>
-    <t>其他综合收益</t>
-  </si>
-  <si>
     <t>t_compr_income</t>
   </si>
   <si>
-    <t>综合收益总额</t>
-  </si>
-  <si>
     <t>compr_inc_attr_p</t>
   </si>
   <si>
-    <t>归属于母公司(或股东)的综合收益总额</t>
-  </si>
-  <si>
     <t>compr_inc_attr_m_s</t>
   </si>
   <si>
-    <t>归属于少数股东的综合收益总额</t>
-  </si>
-  <si>
     <t>ebit</t>
   </si>
   <si>
-    <t>息税前利润</t>
-  </si>
-  <si>
     <t>ebitda</t>
   </si>
   <si>
-    <t>息税折旧摊销前利润</t>
-  </si>
-  <si>
     <t>insurance_exp</t>
   </si>
   <si>
-    <t>保险业务支出</t>
-  </si>
-  <si>
     <t>undist_profit</t>
   </si>
   <si>
-    <t>年初未分配利润</t>
-  </si>
-  <si>
     <t>distable_profit</t>
-  </si>
-  <si>
-    <t>可分配利润</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>更新标识，0未修改1更正过</t>
   </si>
   <si>
     <t>经营性应付项目的增加</t>
@@ -3224,7 +3031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3272,21 +3079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE0E0E0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE0E0E0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFE0E0E0"/>
@@ -3301,7 +3093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3327,11 +3119,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3640,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+    <sheetView topLeftCell="A308" workbookViewId="0">
       <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
@@ -6464,7 +6253,7 @@
         <v>416</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
@@ -6475,7 +6264,7 @@
         <v>416</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>713</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
@@ -6486,7 +6275,7 @@
         <v>416</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>714</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
@@ -6497,7 +6286,7 @@
         <v>416</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>715</v>
+        <v>651</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
@@ -6508,7 +6297,7 @@
         <v>416</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>716</v>
+        <v>652</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
@@ -6519,7 +6308,7 @@
         <v>416</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6530,7 +6319,7 @@
         <v>416</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>718</v>
+        <v>654</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6541,7 +6330,7 @@
         <v>416</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>719</v>
+        <v>655</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6552,7 +6341,7 @@
         <v>416</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>720</v>
+        <v>656</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6563,7 +6352,7 @@
         <v>416</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>721</v>
+        <v>657</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
@@ -6574,650 +6363,650 @@
         <v>416</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>722</v>
+        <v>658</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>723</v>
+        <v>659</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>724</v>
+        <v>660</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>725</v>
+        <v>661</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>727</v>
+        <v>663</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>728</v>
+        <v>664</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>729</v>
+        <v>665</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>730</v>
+        <v>666</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>731</v>
+        <v>667</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>732</v>
+        <v>668</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>734</v>
+        <v>670</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>735</v>
+        <v>671</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>737</v>
+        <v>673</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>741</v>
+        <v>677</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>742</v>
+        <v>678</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>743</v>
+        <v>679</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>744</v>
+        <v>680</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>745</v>
+        <v>681</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>747</v>
+        <v>683</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>748</v>
+        <v>684</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>749</v>
+        <v>685</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>750</v>
+        <v>686</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>752</v>
+        <v>688</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>755</v>
+        <v>691</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>756</v>
+        <v>692</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>757</v>
+        <v>693</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>663</v>
+        <v>625</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>758</v>
+        <v>694</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>759</v>
+        <v>695</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>760</v>
+        <v>696</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>669</v>
+        <v>628</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>761</v>
+        <v>697</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>763</v>
+        <v>699</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>764</v>
+        <v>700</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>765</v>
+        <v>701</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>767</v>
+        <v>703</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>768</v>
+        <v>704</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>772</v>
+        <v>708</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>693</v>
+        <v>640</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>773</v>
+        <v>709</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>695</v>
+        <v>641</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>774</v>
+        <v>710</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>697</v>
+        <v>642</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>775</v>
+        <v>711</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>699</v>
+        <v>643</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>776</v>
+        <v>712</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>777</v>
+        <v>713</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>703</v>
+        <v>645</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>778</v>
+        <v>714</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>779</v>
+        <v>715</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>707</v>
+        <v>647</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>780</v>
+        <v>716</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B318" s="9"/>
-      <c r="C318" s="19"/>
+      <c r="C318" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7558,7 +7347,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7654,8 +7443,8 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>782</v>
+      <c r="G6" s="17" t="s">
+        <v>718</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -7695,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -7715,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -7735,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -7755,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -7775,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -7795,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
@@ -7815,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -7835,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -7855,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -7875,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -7895,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -7915,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -7935,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -7955,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -7975,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -7995,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -8015,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -8035,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -8055,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -8075,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -8095,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -8115,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -8135,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -8155,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
@@ -8175,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -8195,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -8215,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -8235,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -8255,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
@@ -8275,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="H37" s="5">
         <v>0</v>
@@ -8295,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -8315,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -8335,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -8355,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -8375,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -8395,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>663</v>
+        <v>625</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -8415,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
@@ -8435,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="H45" s="5">
         <v>0</v>
@@ -8455,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>669</v>
+        <v>628</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
@@ -8475,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -8495,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
@@ -8515,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="H49" s="5">
         <v>0</v>
@@ -8535,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -8555,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
       <c r="H51" s="5">
         <v>0</v>
@@ -8575,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
@@ -8595,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="H53" s="5">
         <v>0</v>
@@ -8615,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -8635,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -8655,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="H56" s="5">
         <v>0</v>
@@ -8675,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="H57" s="5">
         <v>0</v>
@@ -8695,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>693</v>
+        <v>640</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -8715,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>695</v>
+        <v>641</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -8735,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>697</v>
+        <v>642</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -8755,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>699</v>
+        <v>643</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -8775,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -8795,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>703</v>
+        <v>645</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -8815,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="H64" s="5">
         <v>0</v>
@@ -8835,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>707</v>
+        <v>647</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -9591,7 +9380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -9750,864 +9539,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection sqref="A1:A60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>595</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>677</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>697</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>711</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -9381,7 +9381,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="736">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2972,12 +2972,79 @@
     <t>company_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tablename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>producttradedata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_price</t>
+  </si>
+  <si>
+    <t>high_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3011,11 +3078,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0A0A0A"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3031,7 +3093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3078,22 +3140,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE0E0E0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3120,9 +3171,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3183,7 +3231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3218,7 +3266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3427,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318:A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3683,7 +3731,9 @@
       <c r="B19" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>726</v>
+      </c>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -7004,9 +7054,49 @@
         <v>716</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="9"/>
-      <c r="C318" s="18"/>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>735</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9378,10 +9468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9389,81 +9479,136 @@
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -9471,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
@@ -9479,7 +9624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -9487,7 +9632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -9495,7 +9640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -9503,7 +9648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>122</v>
       </c>
@@ -9511,7 +9656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>124</v>
       </c>
@@ -9538,5 +9683,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="766">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3028,6 +3028,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>profitschema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(12,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>最低价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3037,14 +3045,182 @@
   </si>
   <si>
     <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_proc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.不分配1.预案 2.股东大会通过 3.实施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(12,8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股送转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_bo_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股送股比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_co_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股转增比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每股分红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>税后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_div_inc_tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每股分红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>税前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权登记日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除权除息日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派息日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红股上市日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imp_ann_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施公告日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividend_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_interest_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_share_listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准股本(万)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3077,6 +3253,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3144,7 +3328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3171,6 +3355,8 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3231,7 +3417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3266,7 +3452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3475,10 +3661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318:A321"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7081,21 +7267,164 @@
         <v>732</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>417</v>
+        <v>734</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="C321" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A326" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A327" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -7404,10 +7733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H66"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7418,9 +7747,11 @@
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>248</v>
       </c>
@@ -7439,8 +7770,14 @@
       <c r="H1" s="4" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -7459,8 +7796,14 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -7479,8 +7822,14 @@
       <c r="H3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
@@ -7499,8 +7848,14 @@
       <c r="H4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J4" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>251</v>
       </c>
@@ -7519,8 +7874,14 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J5" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>252</v>
       </c>
@@ -7539,8 +7900,14 @@
       <c r="H6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J6" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -7559,8 +7926,14 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J7" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>253</v>
       </c>
@@ -7579,8 +7952,14 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J8" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>254</v>
       </c>
@@ -7599,8 +7978,14 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J9" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>255</v>
       </c>
@@ -7619,8 +8004,14 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J10" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>256</v>
       </c>
@@ -7639,8 +8030,14 @@
       <c r="H11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J11" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>257</v>
       </c>
@@ -7659,8 +8056,14 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J12" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>258</v>
       </c>
@@ -7679,8 +8082,14 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J13" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>259</v>
       </c>
@@ -7699,8 +8108,14 @@
       <c r="H14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J14" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>260</v>
       </c>
@@ -7719,8 +8134,14 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J15" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
@@ -7737,6 +8158,12 @@
         <v>598</v>
       </c>
       <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="K16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9463,6 +9890,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9470,7 +9898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="767">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,10 +881,6 @@
   </si>
   <si>
     <t>tablename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_balance_sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1684,13 +1680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201803,
-201806,
-201809,
-201812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal(12,2)</t>
   </si>
   <si>
@@ -1730,10 +1719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1751,10 +1736,6 @@
   </si>
   <si>
     <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_cashflow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3213,6 +3194,29 @@
   </si>
   <si>
     <t>基准股本(万)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180331,
+20180630,
+20180930,
+20181231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_cashflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_balance_sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3663,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="C335" sqref="C335"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3915,10 +3919,10 @@
         <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -4051,7 +4055,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>133</v>
@@ -4063,7 +4067,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>134</v>
@@ -4075,7 +4079,7 @@
         <v>112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>136</v>
@@ -4089,7 +4093,7 @@
         <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>139</v>
@@ -4103,7 +4107,7 @@
         <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>140</v>
@@ -4117,7 +4121,7 @@
         <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>141</v>
@@ -4129,7 +4133,7 @@
         <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>142</v>
@@ -4141,10 +4145,10 @@
         <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D37" s="14"/>
     </row>
@@ -4153,10 +4157,10 @@
         <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D38" s="14"/>
     </row>
@@ -4165,10 +4169,10 @@
         <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D39" s="14"/>
     </row>
@@ -4177,7 +4181,7 @@
         <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>144</v>
@@ -4189,7 +4193,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>143</v>
@@ -4198,142 +4202,142 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>426</v>
+        <v>763</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>415</v>
+        <v>764</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -4341,32 +4345,32 @@
         <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -4374,54 +4378,54 @@
         <v>146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -4429,10 +4433,10 @@
         <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -4440,10 +4444,10 @@
         <v>148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -4451,10 +4455,10 @@
         <v>149</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -4462,10 +4466,10 @@
         <v>150</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -4473,10 +4477,10 @@
         <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -4484,10 +4488,10 @@
         <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -4495,10 +4499,10 @@
         <v>153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -4506,10 +4510,10 @@
         <v>154</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -4517,10 +4521,10 @@
         <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -4528,10 +4532,10 @@
         <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -4539,10 +4543,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -4550,21 +4554,21 @@
         <v>158</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -4572,21 +4576,21 @@
         <v>159</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -4594,10 +4598,10 @@
         <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -4605,10 +4609,10 @@
         <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -4616,10 +4620,10 @@
         <v>162</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -4627,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -4638,21 +4642,21 @@
         <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -4660,21 +4664,21 @@
         <v>165</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -4682,10 +4686,10 @@
         <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -4693,32 +4697,32 @@
         <v>167</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -4726,10 +4730,10 @@
         <v>168</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -4737,10 +4741,10 @@
         <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -4748,10 +4752,10 @@
         <v>170</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -4759,10 +4763,10 @@
         <v>171</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -4770,10 +4774,10 @@
         <v>172</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -4781,10 +4785,10 @@
         <v>173</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -4792,10 +4796,10 @@
         <v>174</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -4803,10 +4807,10 @@
         <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -4814,10 +4818,10 @@
         <v>176</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -4825,10 +4829,10 @@
         <v>177</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -4836,10 +4840,10 @@
         <v>178</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -4847,10 +4851,10 @@
         <v>179</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -4858,10 +4862,10 @@
         <v>180</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -4869,10 +4873,10 @@
         <v>181</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -4880,10 +4884,10 @@
         <v>182</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -4891,10 +4895,10 @@
         <v>183</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -4902,43 +4906,43 @@
         <v>184</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -4946,10 +4950,10 @@
         <v>185</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -4957,21 +4961,21 @@
         <v>186</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -4979,10 +4983,10 @@
         <v>187</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -4990,10 +4994,10 @@
         <v>188</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -5001,10 +5005,10 @@
         <v>189</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -5012,10 +5016,10 @@
         <v>190</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -5023,10 +5027,10 @@
         <v>191</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -5034,10 +5038,10 @@
         <v>192</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -5045,10 +5049,10 @@
         <v>193</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -5056,10 +5060,10 @@
         <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -5067,10 +5071,10 @@
         <v>195</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -5078,10 +5082,10 @@
         <v>196</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -5089,10 +5093,10 @@
         <v>197</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -5100,10 +5104,10 @@
         <v>198</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -5111,10 +5115,10 @@
         <v>199</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -5122,10 +5126,10 @@
         <v>200</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -5133,10 +5137,10 @@
         <v>201</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -5144,10 +5148,10 @@
         <v>202</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -5155,10 +5159,10 @@
         <v>203</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -5166,10 +5170,10 @@
         <v>204</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -5177,10 +5181,10 @@
         <v>205</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -5188,10 +5192,10 @@
         <v>206</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -5199,21 +5203,21 @@
         <v>207</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -5221,10 +5225,10 @@
         <v>208</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -5232,10 +5236,10 @@
         <v>209</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -5243,10 +5247,10 @@
         <v>210</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5254,32 +5258,32 @@
         <v>211</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -5287,10 +5291,10 @@
         <v>212</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -5298,10 +5302,10 @@
         <v>213</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -5309,10 +5313,10 @@
         <v>214</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -5320,10 +5324,10 @@
         <v>215</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -5331,10 +5335,10 @@
         <v>216</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -5342,10 +5346,10 @@
         <v>217</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -5353,10 +5357,10 @@
         <v>218</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -5364,10 +5368,10 @@
         <v>219</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -5375,10 +5379,10 @@
         <v>220</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -5386,10 +5390,10 @@
         <v>221</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -5397,10 +5401,10 @@
         <v>222</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -5408,10 +5412,10 @@
         <v>223</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -5419,10 +5423,10 @@
         <v>224</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5430,10 +5434,10 @@
         <v>225</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -5441,10 +5445,10 @@
         <v>226</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -5452,10 +5456,10 @@
         <v>227</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -5463,10 +5467,10 @@
         <v>228</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5474,10 +5478,10 @@
         <v>229</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -5485,10 +5489,10 @@
         <v>230</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -5496,10 +5500,10 @@
         <v>231</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -5507,10 +5511,10 @@
         <v>232</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -5518,10 +5522,10 @@
         <v>233</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5529,10 +5533,10 @@
         <v>234</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5540,10 +5544,10 @@
         <v>235</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -5551,10 +5555,10 @@
         <v>236</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -5562,10 +5566,10 @@
         <v>237</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -5573,10 +5577,10 @@
         <v>238</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -5584,10 +5588,10 @@
         <v>239</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5595,10 +5599,10 @@
         <v>240</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -5606,10 +5610,10 @@
         <v>241</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -5617,10 +5621,10 @@
         <v>242</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -5628,10 +5632,10 @@
         <v>243</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -5639,10 +5643,10 @@
         <v>244</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -5650,10 +5654,10 @@
         <v>245</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -5661,10 +5665,10 @@
         <v>246</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -5672,1759 +5676,1759 @@
         <v>247</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="18" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="19" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="19" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="19" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="19" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" s="19" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" s="19" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" s="19" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -7735,8 +7739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7756,25 +7760,25 @@
         <v>248</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>249</v>
+        <v>766</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>432</v>
+        <v>765</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -7831,25 +7835,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -7857,25 +7861,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>762</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -7883,25 +7887,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
@@ -7915,19 +7919,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -7935,25 +7939,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -7961,25 +7965,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -7987,25 +7991,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -8013,25 +8017,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
@@ -8039,25 +8043,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="K12" s="5">
         <v>0</v>
@@ -8065,25 +8069,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -8091,25 +8095,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
@@ -8117,25 +8121,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -8143,25 +8147,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
@@ -8175,13 +8179,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -8189,19 +8193,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -8209,19 +8213,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -8235,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -8249,19 +8253,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -8269,19 +8273,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -8289,19 +8293,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -8309,19 +8313,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -8335,13 +8339,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E25" s="15">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -8355,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -8375,13 +8379,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -8395,13 +8399,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -8415,13 +8419,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E29" s="15">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -8435,13 +8439,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -8455,13 +8459,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
@@ -8475,13 +8479,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -8495,13 +8499,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -8515,13 +8519,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -8535,13 +8539,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -8555,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
@@ -8569,19 +8573,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H37" s="5">
         <v>0</v>
@@ -8595,13 +8599,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -8609,19 +8613,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -8635,13 +8639,13 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -8655,13 +8659,13 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -8675,13 +8679,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -8695,13 +8699,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -8715,13 +8719,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
@@ -8729,19 +8733,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H45" s="5">
         <v>0</v>
@@ -8755,13 +8759,13 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
@@ -8769,19 +8773,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -8795,13 +8799,13 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E48" s="15">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
@@ -8815,13 +8819,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H49" s="5">
         <v>0</v>
@@ -8829,19 +8833,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -8849,19 +8853,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H51" s="5">
         <v>0</v>
@@ -8875,13 +8879,13 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
@@ -8895,13 +8899,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H53" s="5">
         <v>0</v>
@@ -8915,13 +8919,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E54" s="15">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -8935,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -8955,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E56" s="15">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H56" s="5">
         <v>0</v>
@@ -8975,13 +8979,13 @@
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E57" s="15">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H57" s="5">
         <v>0</v>
@@ -8995,13 +8999,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E58" s="15">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -9015,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E59" s="15">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -9035,13 +9039,13 @@
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E60" s="15">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -9055,13 +9059,13 @@
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E61" s="15">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -9075,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E62" s="15">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -9095,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E63" s="15">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -9115,13 +9119,13 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E64" s="15">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H64" s="5">
         <v>0</v>
@@ -9135,13 +9139,13 @@
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E65" s="15">
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -9155,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E66" s="15">
         <v>0</v>
@@ -9175,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E67" s="15">
         <v>0</v>
@@ -9189,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E68" s="15">
         <v>0</v>
@@ -9197,13 +9201,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B69" s="5">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E69" s="15">
         <v>0</v>
@@ -9211,13 +9215,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B70" s="5">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E70" s="15">
         <v>0</v>
@@ -9225,13 +9229,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71" s="5">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E71" s="15">
         <v>0</v>
@@ -9245,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E72" s="15">
         <v>0</v>
@@ -9259,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E73" s="15">
         <v>0</v>
@@ -9267,13 +9271,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B74" s="5">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E74" s="15">
         <v>0</v>
@@ -9287,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E75" s="15">
         <v>0</v>
@@ -9301,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E76" s="15">
         <v>0</v>
@@ -9315,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E77" s="15">
         <v>0</v>
@@ -9329,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E78" s="15">
         <v>0</v>
@@ -9343,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E79" s="15">
         <v>0</v>
@@ -9357,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E80" s="15">
         <v>0</v>
@@ -9371,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E81" s="15">
         <v>0</v>
@@ -9385,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E82" s="15">
         <v>0</v>
@@ -9399,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E83" s="15">
         <v>0</v>
@@ -9413,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E84" s="15">
         <v>0</v>
@@ -9427,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E85" s="15">
         <v>0</v>
@@ -9441,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E86" s="15">
         <v>0</v>
@@ -9455,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E87" s="15">
         <v>0</v>
@@ -9469,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E88" s="15">
         <v>0</v>
@@ -9483,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E89" s="15">
         <v>0</v>
@@ -9545,7 +9549,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -9585,7 +9589,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
@@ -9593,7 +9597,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -9918,10 +9922,10 @@
         <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -9960,7 +9964,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>47</v>
@@ -9974,7 +9978,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>47</v>
@@ -9988,7 +9992,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>47</v>
@@ -10002,7 +10006,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>47</v>
@@ -10016,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -10030,7 +10034,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>47</v>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="775">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,9 +894,6 @@
   </si>
   <si>
     <t>cap_rese</t>
-  </si>
-  <si>
-    <t>nudistr_profit</t>
   </si>
   <si>
     <t>surplus_rese</t>
@@ -1719,10 +1716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>report_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3217,6 +3210,55 @@
   </si>
   <si>
     <t>company_balance_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undistr_profit</t>
+  </si>
+  <si>
+    <t>report_type</t>
+  </si>
+  <si>
+    <t>report_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 合并报表 上市公司最新报表（默认）
+2 单季合并 单一季度的合并报表
+3 调整单季合并表 调整后的单季合并报表（如果有）
+4 调整合并报表 本年度公布上年同期的财务报表数据，报告期为上年度
+5 调整前合并报表 数据发生变更，将原数据进行保留，即调整前的原数据
+6 母公司报表 该公司母公司的财务报表数据
+7 母公司单季表 母公司的单季度表
+8 母公司调整单季表 母公司调整后的单季表
+9 母公司调整表 该公司母公司的本年度公布上年同期的财务报表数据
+10 母公司调整前报表 母公司调整之前的原始财务报表数据
+11 调整前合并报表 调整之前合并报表原数据
+12 母公司调整前报表 母公司报表发生变更前保留的原数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3665,18 +3707,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="68.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.75" bestFit="1" customWidth="1"/>
@@ -3919,10 +3961,10 @@
         <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -4055,7 +4097,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>133</v>
@@ -4067,7 +4109,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>134</v>
@@ -4079,7 +4121,7 @@
         <v>112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>136</v>
@@ -4093,7 +4135,7 @@
         <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>139</v>
@@ -4107,7 +4149,7 @@
         <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>140</v>
@@ -4121,7 +4163,7 @@
         <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>141</v>
@@ -4133,7 +4175,7 @@
         <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>142</v>
@@ -4145,10 +4187,10 @@
         <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D37" s="14"/>
     </row>
@@ -4157,10 +4199,10 @@
         <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D38" s="14"/>
     </row>
@@ -4169,10 +4211,10 @@
         <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D39" s="14"/>
     </row>
@@ -4181,7 +4223,7 @@
         <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>144</v>
@@ -4193,7 +4235,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>143</v>
@@ -4205,139 +4247,139 @@
         <v>249</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>424</v>
+        <v>774</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>253</v>
+        <v>765</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -4345,32 +4387,32 @@
         <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -4378,54 +4420,54 @@
         <v>146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -4433,10 +4475,10 @@
         <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -4444,10 +4486,10 @@
         <v>148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -4455,10 +4497,10 @@
         <v>149</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -4466,10 +4508,10 @@
         <v>150</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -4477,10 +4519,10 @@
         <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -4488,10 +4530,10 @@
         <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -4499,10 +4541,10 @@
         <v>153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -4510,10 +4552,10 @@
         <v>154</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -4521,10 +4563,10 @@
         <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -4532,10 +4574,10 @@
         <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -4543,10 +4585,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -4554,21 +4596,21 @@
         <v>158</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -4576,21 +4618,21 @@
         <v>159</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -4598,10 +4640,10 @@
         <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -4609,10 +4651,10 @@
         <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -4620,10 +4662,10 @@
         <v>162</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -4631,10 +4673,10 @@
         <v>163</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -4642,21 +4684,21 @@
         <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -4664,21 +4706,21 @@
         <v>165</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -4686,10 +4728,10 @@
         <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -4697,32 +4739,32 @@
         <v>167</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -4730,10 +4772,10 @@
         <v>168</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -4741,10 +4783,10 @@
         <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -4752,10 +4794,10 @@
         <v>170</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -4763,10 +4805,10 @@
         <v>171</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -4774,10 +4816,10 @@
         <v>172</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -4785,10 +4827,10 @@
         <v>173</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -4796,10 +4838,10 @@
         <v>174</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -4807,10 +4849,10 @@
         <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -4818,10 +4860,10 @@
         <v>176</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -4829,10 +4871,10 @@
         <v>177</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -4840,10 +4882,10 @@
         <v>178</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -4851,10 +4893,10 @@
         <v>179</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -4862,10 +4904,10 @@
         <v>180</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -4873,10 +4915,10 @@
         <v>181</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -4884,10 +4926,10 @@
         <v>182</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -4895,10 +4937,10 @@
         <v>183</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -4906,43 +4948,43 @@
         <v>184</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -4950,10 +4992,10 @@
         <v>185</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -4961,21 +5003,21 @@
         <v>186</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -4983,10 +5025,10 @@
         <v>187</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -4994,10 +5036,10 @@
         <v>188</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -5005,10 +5047,10 @@
         <v>189</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -5016,10 +5058,10 @@
         <v>190</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -5027,10 +5069,10 @@
         <v>191</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -5038,10 +5080,10 @@
         <v>192</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -5049,10 +5091,10 @@
         <v>193</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -5060,10 +5102,10 @@
         <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -5071,10 +5113,10 @@
         <v>195</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -5082,10 +5124,10 @@
         <v>196</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -5093,10 +5135,10 @@
         <v>197</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -5104,10 +5146,10 @@
         <v>198</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -5115,10 +5157,10 @@
         <v>199</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -5126,10 +5168,10 @@
         <v>200</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -5137,10 +5179,10 @@
         <v>201</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -5148,10 +5190,10 @@
         <v>202</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -5159,10 +5201,10 @@
         <v>203</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -5170,10 +5212,10 @@
         <v>204</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -5181,10 +5223,10 @@
         <v>205</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -5192,10 +5234,10 @@
         <v>206</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -5203,21 +5245,21 @@
         <v>207</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -5225,10 +5267,10 @@
         <v>208</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -5236,10 +5278,10 @@
         <v>209</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -5247,10 +5289,10 @@
         <v>210</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5258,32 +5300,32 @@
         <v>211</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -5291,10 +5333,10 @@
         <v>212</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -5302,10 +5344,10 @@
         <v>213</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -5313,10 +5355,10 @@
         <v>214</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -5324,10 +5366,10 @@
         <v>215</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -5335,10 +5377,10 @@
         <v>216</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -5346,10 +5388,10 @@
         <v>217</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -5357,10 +5399,10 @@
         <v>218</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -5368,10 +5410,10 @@
         <v>219</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -5379,10 +5421,10 @@
         <v>220</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -5390,10 +5432,10 @@
         <v>221</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -5401,10 +5443,10 @@
         <v>222</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -5412,10 +5454,10 @@
         <v>223</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -5423,10 +5465,10 @@
         <v>224</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5434,10 +5476,10 @@
         <v>225</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -5445,10 +5487,10 @@
         <v>226</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -5456,10 +5498,10 @@
         <v>227</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -5467,10 +5509,10 @@
         <v>228</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5478,10 +5520,10 @@
         <v>229</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -5489,10 +5531,10 @@
         <v>230</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -5500,10 +5542,10 @@
         <v>231</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -5511,10 +5553,10 @@
         <v>232</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -5522,10 +5564,10 @@
         <v>233</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5533,10 +5575,10 @@
         <v>234</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5544,10 +5586,10 @@
         <v>235</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -5555,10 +5597,10 @@
         <v>236</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -5566,10 +5608,10 @@
         <v>237</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -5577,10 +5619,10 @@
         <v>238</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -5588,10 +5630,10 @@
         <v>239</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -5599,10 +5641,10 @@
         <v>240</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -5610,10 +5652,10 @@
         <v>241</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -5621,10 +5663,10 @@
         <v>242</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -5632,10 +5674,10 @@
         <v>243</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -5643,10 +5685,10 @@
         <v>244</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -5654,10 +5696,10 @@
         <v>245</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -5665,10 +5707,10 @@
         <v>246</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -5676,1759 +5718,1773 @@
         <v>247</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A321" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="B321" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A321" s="1" t="s">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A322" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C321" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B322" s="1" t="s">
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A323" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A323" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B323" s="1" t="s">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A324" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="B324" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A324" s="18" t="s">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A325" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C324" s="1" t="s">
+      <c r="B325" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A325" s="19" t="s">
+    <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A326" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C325" s="1" t="s">
+      <c r="B326" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A326" s="19" t="s">
+    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A327" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C326" s="1" t="s">
+      <c r="B327" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A327" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D335" s="13" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -7737,10 +7793,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7760,25 +7816,25 @@
         <v>248</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -7853,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -7873,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -7887,51 +7943,47 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>768</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>771</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>507</v>
+        <v>251</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>585</v>
+      <c r="G7" s="17" t="s">
+        <v>712</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>742</v>
+      <c r="J7" s="18" t="s">
+        <v>738</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -7939,25 +7991,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E8" s="15">
+        <v>505</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -7965,25 +8017,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -7991,25 +8043,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>254</v>
+        <v>765</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>584</v>
+        <v>507</v>
       </c>
       <c r="E10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -8017,25 +8069,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
@@ -8043,25 +8095,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="K12" s="5">
         <v>0</v>
@@ -8069,25 +8121,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -8095,25 +8147,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
@@ -8121,25 +8173,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -8147,345 +8199,351 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -8493,19 +8551,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -8513,19 +8571,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -8533,19 +8591,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -8553,19 +8611,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
@@ -8573,19 +8631,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H37" s="5">
         <v>0</v>
@@ -8593,19 +8651,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -8613,19 +8671,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -8633,19 +8691,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -8653,19 +8711,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -8673,19 +8731,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -8693,19 +8751,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -8713,19 +8771,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
@@ -8733,19 +8791,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H45" s="5">
         <v>0</v>
@@ -8753,19 +8811,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
@@ -8773,19 +8831,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -8793,19 +8851,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E48" s="15">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
@@ -8813,19 +8871,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H49" s="5">
         <v>0</v>
@@ -8833,19 +8891,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -8853,19 +8911,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H51" s="5">
         <v>0</v>
@@ -8873,19 +8931,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
@@ -8893,19 +8951,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H53" s="5">
         <v>0</v>
@@ -8913,19 +8971,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E54" s="15">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -8933,19 +8991,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -8953,19 +9011,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E56" s="15">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H56" s="5">
         <v>0</v>
@@ -8973,19 +9031,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E57" s="15">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H57" s="5">
         <v>0</v>
@@ -8993,19 +9051,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E58" s="15">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -9013,19 +9071,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E59" s="15">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -9033,19 +9091,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E60" s="15">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -9053,19 +9111,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E61" s="15">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -9073,19 +9131,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="5">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E62" s="15">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -9093,19 +9151,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E63" s="15">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -9113,19 +9171,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E64" s="15">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H64" s="5">
         <v>0</v>
@@ -9133,19 +9191,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="5">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E65" s="15">
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -9153,19 +9211,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E66" s="15">
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>247</v>
+        <v>641</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -9173,27 +9231,33 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="5">
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E67" s="15">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H67" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B68" s="5">
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E68" s="15">
         <v>0</v>
@@ -9201,13 +9265,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="B69" s="5">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E69" s="15">
         <v>0</v>
@@ -9215,13 +9279,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B70" s="5">
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E70" s="15">
         <v>0</v>
@@ -9229,13 +9293,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B71" s="5">
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E71" s="15">
         <v>0</v>
@@ -9243,13 +9307,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="B72" s="5">
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E72" s="15">
         <v>0</v>
@@ -9257,13 +9321,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="5">
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E73" s="15">
         <v>0</v>
@@ -9271,13 +9335,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="B74" s="5">
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E74" s="15">
         <v>0</v>
@@ -9285,13 +9349,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="B75" s="5">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E75" s="15">
         <v>0</v>
@@ -9299,13 +9363,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B76" s="5">
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E76" s="15">
         <v>0</v>
@@ -9313,13 +9377,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E77" s="15">
         <v>0</v>
@@ -9327,13 +9391,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" s="5">
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E78" s="15">
         <v>0</v>
@@ -9341,13 +9405,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E79" s="15">
         <v>0</v>
@@ -9355,13 +9419,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E80" s="15">
         <v>0</v>
@@ -9369,13 +9433,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E81" s="15">
         <v>0</v>
@@ -9383,13 +9447,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E82" s="15">
         <v>0</v>
@@ -9397,13 +9461,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E83" s="15">
         <v>0</v>
@@ -9411,13 +9475,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B84" s="5">
         <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E84" s="15">
         <v>0</v>
@@ -9425,13 +9489,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B85" s="5">
         <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E85" s="15">
         <v>0</v>
@@ -9439,13 +9503,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B86" s="5">
         <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E86" s="15">
         <v>0</v>
@@ -9453,13 +9517,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E87" s="15">
         <v>0</v>
@@ -9467,13 +9531,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E88" s="15">
         <v>0</v>
@@ -9481,13 +9545,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E89" s="15">
         <v>0</v>
@@ -9495,13 +9559,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>247</v>
+        <v>504</v>
       </c>
       <c r="E90" s="15">
         <v>0</v>
@@ -9509,15 +9573,21 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="5">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="5">
         <v>0</v>
@@ -9525,7 +9595,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B93" s="5">
         <v>0</v>
@@ -9533,7 +9603,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" s="5">
         <v>0</v>
@@ -9541,7 +9611,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -9549,7 +9619,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -9557,7 +9627,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -9565,7 +9635,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98" s="5">
         <v>0</v>
@@ -9573,7 +9643,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
@@ -9581,7 +9651,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -9589,7 +9659,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
@@ -9597,7 +9667,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -9605,7 +9675,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
@@ -9613,7 +9683,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -9621,7 +9691,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -9629,7 +9699,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
@@ -9637,7 +9707,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
@@ -9645,7 +9715,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
@@ -9653,7 +9723,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -9661,7 +9731,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -9669,7 +9739,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
@@ -9677,7 +9747,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -9685,7 +9755,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
@@ -9693,7 +9763,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
@@ -9701,7 +9771,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -9709,7 +9779,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B116" s="5">
         <v>0</v>
@@ -9717,7 +9787,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -9725,7 +9795,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
@@ -9733,7 +9803,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -9741,7 +9811,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -9749,7 +9819,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
@@ -9757,7 +9827,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B122" s="5">
         <v>0</v>
@@ -9765,7 +9835,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -9773,7 +9843,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -9781,7 +9851,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
@@ -9789,7 +9859,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
@@ -9797,7 +9867,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B127" s="5">
         <v>0</v>
@@ -9805,7 +9875,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -9813,7 +9883,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -9821,7 +9891,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
@@ -9829,7 +9899,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -9837,7 +9907,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -9845,7 +9915,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -9853,7 +9923,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
@@ -9861,7 +9931,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B135" s="5">
         <v>0</v>
@@ -9869,7 +9939,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
@@ -9877,7 +9947,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B137" s="5">
         <v>0</v>
@@ -9885,9 +9955,17 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B139" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9922,10 +10000,10 @@
         <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -9964,7 +10042,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>47</v>
@@ -9978,7 +10056,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>47</v>
@@ -9992,7 +10070,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>47</v>
@@ -10006,7 +10084,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>47</v>
@@ -10020,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -10034,7 +10112,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>47</v>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -1939,9 +1939,6 @@
     <t>incr_oper_payable</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
     <t>conv_debt_into_cap</t>
   </si>
   <si>
@@ -3259,6 +3256,10 @@
   </si>
   <si>
     <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others_payable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3709,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3964,7 +3965,7 @@
         <v>415</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -4258,13 +4259,13 @@
         <v>423</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4272,7 +4273,7 @@
         <v>424</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>281</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>414</v>
@@ -5726,57 +5727,57 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -5787,7 +5788,7 @@
         <v>413</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -5798,7 +5799,7 @@
         <v>413</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -5809,7 +5810,7 @@
         <v>413</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -5820,7 +5821,7 @@
         <v>413</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -5831,7 +5832,7 @@
         <v>413</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -5842,7 +5843,7 @@
         <v>413</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -5853,7 +5854,7 @@
         <v>413</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -5864,7 +5865,7 @@
         <v>413</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -5875,7 +5876,7 @@
         <v>413</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -5886,7 +5887,7 @@
         <v>413</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -5897,7 +5898,7 @@
         <v>413</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -5908,7 +5909,7 @@
         <v>413</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -5919,7 +5920,7 @@
         <v>413</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -5930,7 +5931,7 @@
         <v>413</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -5941,7 +5942,7 @@
         <v>413</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -5952,7 +5953,7 @@
         <v>413</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -5963,7 +5964,7 @@
         <v>413</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -5974,7 +5975,7 @@
         <v>413</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -5985,7 +5986,7 @@
         <v>413</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -5996,7 +5997,7 @@
         <v>413</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -6007,7 +6008,7 @@
         <v>413</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -6018,7 +6019,7 @@
         <v>413</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -6029,7 +6030,7 @@
         <v>413</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -6040,7 +6041,7 @@
         <v>413</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -6051,7 +6052,7 @@
         <v>413</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -6062,7 +6063,7 @@
         <v>413</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -6073,7 +6074,7 @@
         <v>413</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
@@ -6084,7 +6085,7 @@
         <v>413</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
@@ -6095,7 +6096,7 @@
         <v>413</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -6106,7 +6107,7 @@
         <v>413</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -6117,7 +6118,7 @@
         <v>413</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -6128,7 +6129,7 @@
         <v>413</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
@@ -6139,7 +6140,7 @@
         <v>413</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
@@ -6150,7 +6151,7 @@
         <v>413</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -6161,7 +6162,7 @@
         <v>413</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
@@ -6172,7 +6173,7 @@
         <v>413</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -6183,7 +6184,7 @@
         <v>413</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
@@ -6194,7 +6195,7 @@
         <v>413</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
@@ -6205,7 +6206,7 @@
         <v>413</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -6216,7 +6217,7 @@
         <v>413</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -6227,7 +6228,7 @@
         <v>413</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -6238,7 +6239,7 @@
         <v>413</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -6249,7 +6250,7 @@
         <v>413</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6260,7 +6261,7 @@
         <v>413</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
@@ -6271,7 +6272,7 @@
         <v>413</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
@@ -6282,7 +6283,7 @@
         <v>413</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -6293,7 +6294,7 @@
         <v>413</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
@@ -6304,7 +6305,7 @@
         <v>413</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
@@ -6315,7 +6316,7 @@
         <v>413</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
@@ -6326,7 +6327,7 @@
         <v>413</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
@@ -6337,7 +6338,7 @@
         <v>413</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
@@ -6348,7 +6349,7 @@
         <v>413</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6359,7 +6360,7 @@
         <v>413</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -6370,7 +6371,7 @@
         <v>413</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -6381,7 +6382,7 @@
         <v>413</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -6392,7 +6393,7 @@
         <v>413</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -6403,7 +6404,7 @@
         <v>413</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -6414,7 +6415,7 @@
         <v>413</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -6425,7 +6426,7 @@
         <v>413</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -6436,7 +6437,7 @@
         <v>413</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -6447,7 +6448,7 @@
         <v>413</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
@@ -6458,7 +6459,7 @@
         <v>413</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -6469,7 +6470,7 @@
         <v>413</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
@@ -6480,7 +6481,7 @@
         <v>413</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
@@ -6491,7 +6492,7 @@
         <v>413</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
@@ -6502,7 +6503,7 @@
         <v>413</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
@@ -6513,7 +6514,7 @@
         <v>413</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
@@ -6524,7 +6525,7 @@
         <v>413</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
@@ -6535,956 +6536,956 @@
         <v>413</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C335" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D335" s="13" t="s">
         <v>772</v>
-      </c>
-      <c r="D335" s="13" t="s">
-        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -7795,8 +7796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7816,25 +7817,25 @@
         <v>248</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -7909,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -7929,13 +7930,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -7943,29 +7944,29 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>767</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>768</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -7977,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -7997,19 +7998,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -8023,19 +8024,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -8043,25 +8044,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -8075,19 +8076,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
@@ -8101,19 +8102,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K12" s="5">
         <v>0</v>
@@ -8133,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -8159,13 +8160,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
@@ -8185,13 +8186,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -8211,13 +8212,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
@@ -8237,13 +8238,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
@@ -8263,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -8283,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -8303,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -8323,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -8343,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -8363,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -8383,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -8403,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -8423,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -8443,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -8463,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -8483,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -8503,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -8523,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
@@ -8543,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -8563,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -8583,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -8603,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -8623,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
@@ -8643,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H37" s="5">
         <v>0</v>
@@ -8663,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -8683,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -8703,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -8723,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -8743,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -8763,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -8783,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
@@ -8803,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H45" s="5">
         <v>0</v>
@@ -8823,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
@@ -8843,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -8863,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
@@ -8883,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H49" s="5">
         <v>0</v>
@@ -8903,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -8923,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H51" s="5">
         <v>0</v>
@@ -8943,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
@@ -8963,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H53" s="5">
         <v>0</v>
@@ -8983,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -9003,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -9023,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H56" s="5">
         <v>0</v>
@@ -9043,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H57" s="5">
         <v>0</v>
@@ -9063,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -9083,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -9103,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -9123,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -9143,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -9163,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -9183,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H64" s="5">
         <v>0</v>
@@ -9203,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -9223,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -9453,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="E82" s="15">
         <v>0</v>
@@ -9467,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E83" s="15">
         <v>0</v>
@@ -9481,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E84" s="15">
         <v>0</v>
@@ -9495,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E85" s="15">
         <v>0</v>
@@ -9509,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E86" s="15">
         <v>0</v>
@@ -9523,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E87" s="15">
         <v>0</v>
@@ -9537,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E88" s="15">
         <v>0</v>
@@ -9551,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E89" s="15">
         <v>0</v>
@@ -9565,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E90" s="15">
         <v>0</v>
@@ -10000,10 +10001,10 @@
         <v>82</v>
       </c>
       <c r="D1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1" t="s">
         <v>713</v>
-      </c>
-      <c r="E1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -10042,7 +10043,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>47</v>
@@ -10056,7 +10057,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>47</v>
@@ -10070,7 +10071,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>47</v>
@@ -10084,7 +10085,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>47</v>
@@ -10098,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -10112,7 +10113,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>47</v>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="771">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1677,17 +1677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decimal(12,2)</t>
-  </si>
-  <si>
-    <t>decimal(12,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(12,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal(11,8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1705,10 +1694,6 @@
   </si>
   <si>
     <t>自由流通股本(万)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(12,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3003,10 +2988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decimal(12,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最低价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3261,6 +3242,9 @@
   <si>
     <t>others_payable</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(16,2)</t>
   </si>
 </sst>
 </file>
@@ -3710,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3962,10 +3946,10 @@
         <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>415</v>
+        <v>770</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -4098,7 +4082,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>133</v>
@@ -4110,7 +4094,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>134</v>
@@ -4122,7 +4106,7 @@
         <v>112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>136</v>
@@ -4136,7 +4120,7 @@
         <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>139</v>
@@ -4150,7 +4134,7 @@
         <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>140</v>
@@ -4164,7 +4148,7 @@
         <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>141</v>
@@ -4176,7 +4160,7 @@
         <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>142</v>
@@ -4188,10 +4172,10 @@
         <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D37" s="14"/>
     </row>
@@ -4200,10 +4184,10 @@
         <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D38" s="14"/>
     </row>
@@ -4212,10 +4196,10 @@
         <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D39" s="14"/>
     </row>
@@ -4224,7 +4208,7 @@
         <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>421</v>
+        <v>770</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>144</v>
@@ -4236,7 +4220,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>421</v>
+        <v>770</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>143</v>
@@ -4248,7 +4232,7 @@
         <v>249</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>279</v>
@@ -4256,24 +4240,24 @@
     </row>
     <row r="43" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>281</v>
@@ -4284,10 +4268,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>282</v>
@@ -4296,10 +4280,10 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>283</v>
@@ -4311,7 +4295,7 @@
         <v>253</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>284</v>
@@ -4322,7 +4306,7 @@
         <v>254</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>285</v>
@@ -4333,7 +4317,7 @@
         <v>255</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>286</v>
@@ -4344,7 +4328,7 @@
         <v>256</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>287</v>
@@ -4355,7 +4339,7 @@
         <v>257</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>288</v>
@@ -4366,7 +4350,7 @@
         <v>258</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>289</v>
@@ -4377,7 +4361,7 @@
         <v>259</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>290</v>
@@ -4388,7 +4372,7 @@
         <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>291</v>
@@ -4399,7 +4383,7 @@
         <v>260</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>292</v>
@@ -4410,7 +4394,7 @@
         <v>261</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>293</v>
@@ -4421,7 +4405,7 @@
         <v>146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>294</v>
@@ -4432,7 +4416,7 @@
         <v>262</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>295</v>
@@ -4443,7 +4427,7 @@
         <v>263</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>296</v>
@@ -4454,7 +4438,7 @@
         <v>264</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>297</v>
@@ -4465,7 +4449,7 @@
         <v>265</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>298</v>
@@ -4476,7 +4460,7 @@
         <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>299</v>
@@ -4487,7 +4471,7 @@
         <v>148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>300</v>
@@ -4498,7 +4482,7 @@
         <v>149</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>301</v>
@@ -4509,7 +4493,7 @@
         <v>150</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>302</v>
@@ -4520,7 +4504,7 @@
         <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>303</v>
@@ -4531,7 +4515,7 @@
         <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>304</v>
@@ -4542,7 +4526,7 @@
         <v>153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>305</v>
@@ -4553,7 +4537,7 @@
         <v>154</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>306</v>
@@ -4564,7 +4548,7 @@
         <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>307</v>
@@ -4575,7 +4559,7 @@
         <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>308</v>
@@ -4586,7 +4570,7 @@
         <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>309</v>
@@ -4597,7 +4581,7 @@
         <v>158</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>310</v>
@@ -4608,7 +4592,7 @@
         <v>266</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>311</v>
@@ -4619,7 +4603,7 @@
         <v>159</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>312</v>
@@ -4630,7 +4614,7 @@
         <v>267</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>313</v>
@@ -4641,7 +4625,7 @@
         <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>314</v>
@@ -4652,7 +4636,7 @@
         <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>315</v>
@@ -4663,7 +4647,7 @@
         <v>162</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>316</v>
@@ -4674,7 +4658,7 @@
         <v>163</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>317</v>
@@ -4685,7 +4669,7 @@
         <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>318</v>
@@ -4696,7 +4680,7 @@
         <v>268</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>319</v>
@@ -4707,7 +4691,7 @@
         <v>165</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>320</v>
@@ -4718,7 +4702,7 @@
         <v>269</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>295</v>
@@ -4729,7 +4713,7 @@
         <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>321</v>
@@ -4740,7 +4724,7 @@
         <v>167</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>322</v>
@@ -4751,7 +4735,7 @@
         <v>270</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>323</v>
@@ -4762,7 +4746,7 @@
         <v>271</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>324</v>
@@ -4773,7 +4757,7 @@
         <v>168</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>325</v>
@@ -4784,7 +4768,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>326</v>
@@ -4795,7 +4779,7 @@
         <v>170</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>327</v>
@@ -4806,7 +4790,7 @@
         <v>171</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>328</v>
@@ -4817,7 +4801,7 @@
         <v>172</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>329</v>
@@ -4828,7 +4812,7 @@
         <v>173</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>330</v>
@@ -4839,7 +4823,7 @@
         <v>174</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>331</v>
@@ -4850,7 +4834,7 @@
         <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>332</v>
@@ -4861,7 +4845,7 @@
         <v>176</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>333</v>
@@ -4872,7 +4856,7 @@
         <v>177</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>334</v>
@@ -4883,7 +4867,7 @@
         <v>178</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>335</v>
@@ -4894,7 +4878,7 @@
         <v>179</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>336</v>
@@ -4905,7 +4889,7 @@
         <v>180</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>337</v>
@@ -4916,7 +4900,7 @@
         <v>181</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>338</v>
@@ -4927,7 +4911,7 @@
         <v>182</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>339</v>
@@ -4938,7 +4922,7 @@
         <v>183</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>340</v>
@@ -4949,7 +4933,7 @@
         <v>184</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>341</v>
@@ -4960,7 +4944,7 @@
         <v>272</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>342</v>
@@ -4971,7 +4955,7 @@
         <v>273</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>343</v>
@@ -4982,7 +4966,7 @@
         <v>274</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>344</v>
@@ -4993,7 +4977,7 @@
         <v>185</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>345</v>
@@ -5004,7 +4988,7 @@
         <v>186</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>346</v>
@@ -5015,7 +4999,7 @@
         <v>275</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>347</v>
@@ -5026,7 +5010,7 @@
         <v>187</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>348</v>
@@ -5037,7 +5021,7 @@
         <v>188</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>349</v>
@@ -5048,7 +5032,7 @@
         <v>189</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>350</v>
@@ -5059,7 +5043,7 @@
         <v>190</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>351</v>
@@ -5070,7 +5054,7 @@
         <v>191</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>352</v>
@@ -5081,7 +5065,7 @@
         <v>192</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>353</v>
@@ -5092,7 +5076,7 @@
         <v>193</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>354</v>
@@ -5103,7 +5087,7 @@
         <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>355</v>
@@ -5114,7 +5098,7 @@
         <v>195</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>356</v>
@@ -5125,7 +5109,7 @@
         <v>196</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>357</v>
@@ -5136,7 +5120,7 @@
         <v>197</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>358</v>
@@ -5147,7 +5131,7 @@
         <v>198</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>359</v>
@@ -5158,7 +5142,7 @@
         <v>199</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>360</v>
@@ -5169,7 +5153,7 @@
         <v>200</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>361</v>
@@ -5180,7 +5164,7 @@
         <v>201</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>362</v>
@@ -5191,7 +5175,7 @@
         <v>202</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>363</v>
@@ -5202,7 +5186,7 @@
         <v>203</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>364</v>
@@ -5213,7 +5197,7 @@
         <v>204</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>365</v>
@@ -5224,7 +5208,7 @@
         <v>205</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>366</v>
@@ -5235,7 +5219,7 @@
         <v>206</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>367</v>
@@ -5246,7 +5230,7 @@
         <v>207</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>368</v>
@@ -5257,7 +5241,7 @@
         <v>276</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>369</v>
@@ -5268,7 +5252,7 @@
         <v>208</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>370</v>
@@ -5279,7 +5263,7 @@
         <v>209</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>371</v>
@@ -5290,7 +5274,7 @@
         <v>210</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>372</v>
@@ -5301,7 +5285,7 @@
         <v>211</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>373</v>
@@ -5312,7 +5296,7 @@
         <v>277</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>374</v>
@@ -5323,7 +5307,7 @@
         <v>278</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>375</v>
@@ -5334,7 +5318,7 @@
         <v>212</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>376</v>
@@ -5345,7 +5329,7 @@
         <v>213</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>377</v>
@@ -5356,7 +5340,7 @@
         <v>214</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>378</v>
@@ -5367,7 +5351,7 @@
         <v>215</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>379</v>
@@ -5378,7 +5362,7 @@
         <v>216</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>380</v>
@@ -5389,7 +5373,7 @@
         <v>217</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>381</v>
@@ -5400,7 +5384,7 @@
         <v>218</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>382</v>
@@ -5411,7 +5395,7 @@
         <v>219</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>383</v>
@@ -5422,7 +5406,7 @@
         <v>220</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>384</v>
@@ -5433,7 +5417,7 @@
         <v>221</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>385</v>
@@ -5444,7 +5428,7 @@
         <v>222</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>386</v>
@@ -5455,7 +5439,7 @@
         <v>223</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>387</v>
@@ -5466,7 +5450,7 @@
         <v>224</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>388</v>
@@ -5477,7 +5461,7 @@
         <v>225</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>389</v>
@@ -5488,7 +5472,7 @@
         <v>226</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>390</v>
@@ -5499,7 +5483,7 @@
         <v>227</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>391</v>
@@ -5510,7 +5494,7 @@
         <v>228</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>392</v>
@@ -5521,7 +5505,7 @@
         <v>229</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>393</v>
@@ -5532,7 +5516,7 @@
         <v>230</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>394</v>
@@ -5543,7 +5527,7 @@
         <v>231</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>395</v>
@@ -5554,7 +5538,7 @@
         <v>232</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>396</v>
@@ -5565,7 +5549,7 @@
         <v>233</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>397</v>
@@ -5576,7 +5560,7 @@
         <v>234</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>398</v>
@@ -5587,7 +5571,7 @@
         <v>235</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>399</v>
@@ -5598,7 +5582,7 @@
         <v>236</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>400</v>
@@ -5609,7 +5593,7 @@
         <v>237</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>401</v>
@@ -5620,7 +5604,7 @@
         <v>238</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>402</v>
@@ -5631,7 +5615,7 @@
         <v>239</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>403</v>
@@ -5642,7 +5626,7 @@
         <v>240</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>404</v>
@@ -5653,7 +5637,7 @@
         <v>241</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>405</v>
@@ -5664,7 +5648,7 @@
         <v>242</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>406</v>
@@ -5675,7 +5659,7 @@
         <v>243</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>407</v>
@@ -5686,7 +5670,7 @@
         <v>244</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>408</v>
@@ -5697,7 +5681,7 @@
         <v>245</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>409</v>
@@ -5708,7 +5692,7 @@
         <v>246</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>410</v>
@@ -5719,7 +5703,7 @@
         <v>247</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>411</v>
@@ -5727,1765 +5711,1765 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>413</v>
+        <v>770</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>414</v>
+        <v>770</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="18" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="19" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="19" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="19" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="19" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="19" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="19" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="19" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -7796,7 +7780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
@@ -7817,25 +7801,25 @@
         <v>248</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -7910,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -7930,13 +7914,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -7944,29 +7928,29 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -7978,13 +7962,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -7998,19 +7982,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -8024,19 +8008,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -8044,25 +8028,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -8076,19 +8060,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
@@ -8102,19 +8086,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="K12" s="5">
         <v>0</v>
@@ -8128,19 +8112,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -8154,19 +8138,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
@@ -8180,19 +8164,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -8206,19 +8190,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
@@ -8232,19 +8216,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
@@ -8258,13 +8242,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -8278,13 +8262,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -8298,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -8318,13 +8302,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -8338,13 +8322,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -8358,13 +8342,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -8378,13 +8362,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -8398,13 +8382,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E25" s="15">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -8418,13 +8402,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -8438,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -8458,13 +8442,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -8478,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E29" s="15">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -8498,13 +8482,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -8518,13 +8502,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
@@ -8538,13 +8522,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -8558,13 +8542,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E33" s="15">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -8578,13 +8562,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -8598,13 +8582,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -8618,13 +8602,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
@@ -8638,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H37" s="5">
         <v>0</v>
@@ -8658,13 +8642,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -8678,13 +8662,13 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -8698,13 +8682,13 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -8718,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -8738,13 +8722,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -8758,13 +8742,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -8778,13 +8762,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
@@ -8798,13 +8782,13 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H45" s="5">
         <v>0</v>
@@ -8818,13 +8802,13 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
@@ -8838,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -8858,13 +8842,13 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E48" s="15">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
@@ -8878,13 +8862,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H49" s="5">
         <v>0</v>
@@ -8898,13 +8882,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -8918,13 +8902,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H51" s="5">
         <v>0</v>
@@ -8938,13 +8922,13 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
@@ -8958,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H53" s="5">
         <v>0</v>
@@ -8978,13 +8962,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E54" s="15">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -8998,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -9018,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E56" s="15">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H56" s="5">
         <v>0</v>
@@ -9038,13 +9022,13 @@
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E57" s="15">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H57" s="5">
         <v>0</v>
@@ -9058,13 +9042,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E58" s="15">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -9078,13 +9062,13 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E59" s="15">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -9098,13 +9082,13 @@
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E60" s="15">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -9118,13 +9102,13 @@
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E61" s="15">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -9138,13 +9122,13 @@
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E62" s="15">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -9158,13 +9142,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E63" s="15">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -9178,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E64" s="15">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H64" s="5">
         <v>0</v>
@@ -9198,13 +9182,13 @@
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E65" s="15">
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -9218,13 +9202,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E66" s="15">
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -9238,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E67" s="15">
         <v>0</v>
@@ -9258,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E68" s="15">
         <v>0</v>
@@ -9272,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E69" s="15">
         <v>0</v>
@@ -9286,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E70" s="15">
         <v>0</v>
@@ -9300,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E71" s="15">
         <v>0</v>
@@ -9314,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E72" s="15">
         <v>0</v>
@@ -9328,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E73" s="15">
         <v>0</v>
@@ -9342,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E74" s="15">
         <v>0</v>
@@ -9356,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E75" s="15">
         <v>0</v>
@@ -9370,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E76" s="15">
         <v>0</v>
@@ -9384,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E77" s="15">
         <v>0</v>
@@ -9398,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E78" s="15">
         <v>0</v>
@@ -9412,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E79" s="15">
         <v>0</v>
@@ -9426,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E80" s="15">
         <v>0</v>
@@ -9440,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E81" s="15">
         <v>0</v>
@@ -9454,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E82" s="15">
         <v>0</v>
@@ -9468,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E83" s="15">
         <v>0</v>
@@ -9482,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E84" s="15">
         <v>0</v>
@@ -9496,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E85" s="15">
         <v>0</v>
@@ -9510,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E86" s="15">
         <v>0</v>
@@ -9524,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" s="15">
         <v>0</v>
@@ -9538,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E88" s="15">
         <v>0</v>
@@ -9552,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E89" s="15">
         <v>0</v>
@@ -9566,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E90" s="15">
         <v>0</v>
@@ -10001,10 +9985,10 @@
         <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -10043,7 +10027,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>47</v>
@@ -10057,7 +10041,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>47</v>
@@ -10071,7 +10055,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>47</v>
@@ -10085,7 +10069,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>47</v>
@@ -10099,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -10113,7 +10097,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>47</v>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="772">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3245,6 +3245,10 @@
   </si>
   <si>
     <t>decimal(16,2)</t>
+  </si>
+  <si>
+    <t>0:首次获取 1:年报错误重新做了更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3694,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5544,7 +5548,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>233</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>234</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>235</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>236</v>
       </c>
@@ -5588,7 +5592,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>237</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>238</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>239</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>240</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>241</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>242</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>243</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>244</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>245</v>
       </c>
@@ -5687,7 +5691,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>246</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>247</v>
       </c>
@@ -5708,8 +5712,11 @@
       <c r="C175" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D175" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>500</v>
       </c>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="793">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3247,7 +3247,86 @@
     <t>decimal(16,2)</t>
   </si>
   <si>
-    <t>0:首次获取 1:年报错误重新做了更新</t>
+    <t>0:首次获取 1:与年报数据进行了核对 2:年报错误重新做了更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfilefielddict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tstfielddict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfilestfield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filechiname</t>
+  </si>
+  <si>
+    <t>filechiname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件中的字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_fileid</t>
+  </si>
+  <si>
+    <t>l_fileid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件中字段顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engname</t>
+  </si>
+  <si>
+    <t>engname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_stid</t>
+  </si>
+  <si>
+    <t>l_stid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库字段顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3255,7 +3334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3296,6 +3375,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3363,7 +3449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3392,6 +3478,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3696,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D335"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336:C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7478,6 +7571,64 @@
       <c r="D335" s="13" t="s">
         <v>767</v>
       </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A336" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A340" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7565,10 +7716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7577,9 +7728,10 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -7599,8 +7751,26 @@
       <c r="H1" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -7620,8 +7790,26 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J2" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -7641,8 +7829,26 @@
       <c r="H3" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J3" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -7662,8 +7868,14 @@
       <c r="H4" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="P4" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -7680,7 +7892,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -7692,7 +7904,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -7704,7 +7916,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -7716,7 +7928,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -7728,7 +7940,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -7740,7 +7952,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -7752,7 +7964,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -7764,7 +7976,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="798">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3329,11 +3329,30 @@
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>datadownloadlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealstatus</t>
+  </si>
+  <si>
+    <t>sourcetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3478,13 +3497,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3545,7 +3564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3580,7 +3599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3791,8 +3810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="A336" sqref="A336:C340"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7617,7 +7636,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A340" s="22" t="s">
+      <c r="A340" s="21" t="s">
         <v>789</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -7628,7 +7647,9 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A341" s="17"/>
+      <c r="A341" s="17" t="s">
+        <v>797</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7716,10 +7737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7729,9 +7750,10 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -7754,7 +7776,7 @@
       <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>772</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -7766,11 +7788,17 @@
       <c r="P1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="22" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -7808,8 +7836,14 @@
       <c r="Q2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S2" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -7847,8 +7881,14 @@
       <c r="Q3" s="5" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S3" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -7874,8 +7914,14 @@
       <c r="Q4" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S4" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -7891,8 +7937,14 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S5" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -7904,7 +7956,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -7916,7 +7968,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -7928,7 +7980,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -7940,7 +7992,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -7952,7 +8004,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -7964,7 +8016,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -7976,7 +8028,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="807">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3289,63 +3289,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>engname</t>
-  </si>
-  <si>
-    <t>engname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>l_stid</t>
+  </si>
+  <si>
+    <t>l_stid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库字段顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datadownloadlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourcetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 交易数据
+2. Income
+3. Balancesheet
+4. Cashflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：准备开始
+1：下载完成
+2：导入正式表完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：各自下载
+1：批量下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbengname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbengname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据库字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_stid</t>
-  </si>
-  <si>
-    <t>l_stid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库字段顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filetype</t>
-  </si>
-  <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datadownloadlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dealstatus</t>
-  </si>
-  <si>
-    <t>sourcetype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3468,7 +3512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3500,7 +3544,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -3808,10 +3851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7602,7 +7645,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="11" t="s">
         <v>780</v>
       </c>
@@ -7613,42 +7656,79 @@
         <v>781</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="11" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A339" s="11" t="s">
         <v>784</v>
-      </c>
-      <c r="C338" s="11" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A339" s="11" t="s">
-        <v>787</v>
       </c>
       <c r="B339" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C339" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A340" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A340" s="21" t="s">
-        <v>789</v>
-      </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A341" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="D341" s="13" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A342" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="D342" s="13" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A343" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="C340" s="11" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A341" s="17" t="s">
+      <c r="B343" s="11" t="s">
         <v>797</v>
+      </c>
+      <c r="C343" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="D343" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -7740,7 +7820,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7749,6 +7829,7 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="20" max="20" width="13.75" customWidth="1"/>
   </cols>
@@ -7788,14 +7869,14 @@
       <c r="P1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>774</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="22" t="s">
-        <v>793</v>
+      <c r="T1" s="21" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -7825,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
@@ -7837,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
@@ -7870,19 +7951,19 @@
         <v>76</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>47</v>
@@ -7909,13 +7990,13 @@
         <v>77</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>77</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>47</v>
@@ -7938,7 +8019,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="S5" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>47</v>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="813">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3390,6 +3390,30 @@
   </si>
   <si>
     <t>数据库字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志插入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志插入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3512,7 +3536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3547,6 +3571,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3851,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="C338" sqref="C338"/>
+    <sheetView topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7729,6 +7754,28 @@
       </c>
       <c r="D343" s="13" t="s">
         <v>801</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A344" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C344" s="11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A345" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C345" s="11" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -7819,8 +7866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8036,6 +8083,12 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
+      <c r="S6" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -8048,6 +8101,12 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
+      <c r="S7" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -3255,14 +3255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tstfielddict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tfilestfield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>filechiname</t>
   </si>
   <si>
@@ -3414,6 +3406,14 @@
   </si>
   <si>
     <t>logtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tstfielddict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfilestfield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3536,7 +3536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3566,9 +3566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7661,121 +7658,121 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C336" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B339" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="C340" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A341" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A342" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B342" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="D342" s="13" t="s">
         <v>797</v>
-      </c>
-      <c r="C342" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="D342" s="13" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A343" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A344" s="22" t="s">
-        <v>810</v>
+      <c r="A344" s="21" t="s">
+        <v>808</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C344" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A345" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="B345" s="11" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A345" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="B345" s="11" t="s">
-        <v>809</v>
-      </c>
       <c r="C345" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -7866,8 +7863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:T7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7878,7 +7875,7 @@
     <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
@@ -7910,20 +7907,20 @@
       <c r="M1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>773</v>
+      <c r="N1" s="20" t="s">
+        <v>811</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>774</v>
+      <c r="Q1" s="20" t="s">
+        <v>812</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="21" t="s">
-        <v>790</v>
+      <c r="T1" s="20" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -7947,25 +7944,25 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
@@ -7992,25 +7989,25 @@
         <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>47</v>
@@ -8037,13 +8034,13 @@
         <v>77</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>77</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>47</v>
@@ -8066,7 +8063,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="S5" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>47</v>
@@ -8084,7 +8081,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="S6" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="T6" s="5">
         <v>0</v>
@@ -8102,7 +8099,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="S7" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="T7" s="5">
         <v>0</v>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="816">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3414,6 +3414,18 @@
   </si>
   <si>
     <t>tfilestfield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值从1000开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3875,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7672,10 +7684,13 @@
         <v>778</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>26</v>
+        <v>813</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>779</v>
+      </c>
+      <c r="D337" s="17" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
@@ -7694,10 +7709,13 @@
         <v>782</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>26</v>
+        <v>814</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>783</v>
+      </c>
+      <c r="D339" s="17" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
@@ -7863,7 +7881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="817">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3421,11 +3421,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数值从1000开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值从10000开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3888,7 +3892,7 @@
   <dimension ref="A1:D345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B339" sqref="B339"/>
+      <selection activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7690,7 +7694,7 @@
         <v>779</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
@@ -7709,13 +7713,13 @@
         <v>782</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>783</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="基础表名" sheetId="2" r:id="rId3"/>
     <sheet name="公司基本面" sheetId="5" r:id="rId4"/>
     <sheet name="交易表名" sheetId="3" r:id="rId5"/>
+    <sheet name="缠论表名" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="823">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3432,11 +3433,35 @@
     <t>数值从10000开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>entdaytradedata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3645,7 +3670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3680,7 +3705,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3889,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D345"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339"/>
+    <sheetView topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5897,7 +5922,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>247</v>
+        <v>819</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>422</v>
@@ -7796,6 +7821,18 @@
       <c r="C345" s="11" t="s">
         <v>806</v>
       </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A346" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D346" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10396,7 +10433,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10610,4 +10647,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="830">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3455,6 +3455,34 @@
   </si>
   <si>
     <t>merge_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updown_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updown_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶底分型的标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶分型U,底分型D,都不是N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3914,10 +3942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:D347"/>
   <sheetViews>
-    <sheetView topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347:C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7833,6 +7861,20 @@
         <v>820</v>
       </c>
       <c r="D346" s="17"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A347" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C347" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>829</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10651,10 +10693,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10713,17 +10755,25 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>720</v>
+        <v>824</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="1" t="s">
         <v>822</v>
       </c>
       <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B9" s="5">
         <v>0</v>
       </c>
     </row>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="834">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3483,6 +3483,22 @@
   </si>
   <si>
     <t>顶分型U,底分型D,都不是N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3942,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D347"/>
+  <dimension ref="A1:D348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347:C347"/>
+      <selection activeCell="A347" sqref="A347:C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7874,6 +7890,17 @@
       </c>
       <c r="D347" s="17" t="s">
         <v>829</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A348" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -10693,10 +10720,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10777,6 +10804,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/字段及数据结构参考.xlsx
+++ b/DataBase/字段及数据结构参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="840">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3499,6 +3499,30 @@
   </si>
   <si>
     <t>交易时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：股票类型 2：指数类型 3：基金类型(场内基金ETF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entthirmintradedata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3621,7 +3645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3654,6 +3678,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3958,10 +3983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D348"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347:C348"/>
+    <sheetView topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7901,6 +7926,20 @@
       </c>
       <c r="C348" s="11" t="s">
         <v>833</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A349" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="B349" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C349" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="D349" s="17" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -8316,9 +8355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10720,95 +10757,171 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>818</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>824</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>822</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>825</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D9" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>831</v>
       </c>
       <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="E11" s="22">
         <v>0</v>
       </c>
     </row>
